--- a/excel/ordenes.xlsx
+++ b/excel/ordenes.xlsx
@@ -5,30 +5,28 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Páginas\Bolsa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bolsa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0A563B-1673-4367-A666-D666919B49C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCF1AE8-1AA0-4BEB-895A-E15632FFD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ordenes" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="CCL" sheetId="3" r:id="rId3"/>
-    <sheet name="Cedear" sheetId="4" r:id="rId4"/>
-    <sheet name="Merval" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$D$34</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ordenes!$A$1:$E$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ordenes!$A$1:$G$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="45">
   <si>
     <t>Operacion</t>
   </si>
@@ -159,7 +157,10 @@
     <t>Diferencia</t>
   </si>
   <si>
-    <t>SQL</t>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>CCL</t>
   </si>
 </sst>
 </file>
@@ -548,2945 +549,2946 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E70" sqref="E70"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.69921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="5" width="16.09765625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D2" s="3">
         <v>45735</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>63</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>7450</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D3" s="3">
         <v>45735</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>35</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>13925</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>45728</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>1328</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>813.9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>45715</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>27</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>14700</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>45712</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>37675</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>45707</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>501</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>787.7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>45702</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>58000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>45700</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>14000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>45700</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>46000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>45699</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>6090</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>45699</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>94</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>3680</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>45699</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>55</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>2145</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>45699</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>7210</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>45699</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>115</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>1555</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>45699</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>11000</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>45448</v>
       </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
         <v>4450</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>45695</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>24</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>6460</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>45693</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>200</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>814.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>45692</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>14</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>6270</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>45692</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>41925</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>45688</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>6160</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>45688</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>15</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>6490</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>45687</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>31725</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>45687</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>15</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>6460</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="3">
+      <c r="D26" s="3">
         <v>45687</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>14800</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3">
+      <c r="D27" s="3">
         <v>45687</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>48</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>6080</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="3">
+      <c r="D28" s="3">
         <v>45687</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>6</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>7090</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="3">
+      <c r="D29" s="3">
         <v>45687</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>115</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>1710</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="3">
+      <c r="D30" s="3">
         <v>45687</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>21</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>6900</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="3">
+      <c r="D31" s="3">
         <v>45687</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>12</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>12100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3">
+      <c r="D32" s="3">
         <v>45687</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>55</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>2660</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="3">
+      <c r="D33" s="3">
         <v>45450</v>
       </c>
-      <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
+      <c r="F33">
+        <v>5</v>
+      </c>
+      <c r="G33">
         <v>4180</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="3">
+      <c r="D34" s="3">
         <v>45687</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>35</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>8260</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="3">
+      <c r="D35" s="3">
         <v>45687</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>46</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>4225</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="3">
+      <c r="D36" s="3">
         <v>45687</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>3914</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>757.2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="3">
+      <c r="D37" s="3">
         <v>45687</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>1219</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>810</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
       <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="3">
+      <c r="D38" s="3">
         <v>45687</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>39</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>25025</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="3">
+      <c r="D39" s="3">
         <v>45687</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>140</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>14075</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C40" s="3">
+      <c r="D40" s="3">
         <v>45684</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>14</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>6570</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="3">
+      <c r="D41" s="3">
         <v>45684</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>111</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>2555</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="3">
+      <c r="D42" s="3">
         <v>45455</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>10</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>4337.95</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="3">
+      <c r="D43" s="3">
         <v>45680</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>1</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>13300</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="3">
+      <c r="D44" s="3">
         <v>45679</v>
       </c>
-      <c r="D44">
-        <v>7</v>
-      </c>
-      <c r="E44">
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
         <v>2190</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="3">
+      <c r="D45" s="3">
         <v>45671</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>36</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>13975</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="3">
+      <c r="D46" s="3">
         <v>45666</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>610</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>825</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="3">
+      <c r="D47" s="3">
         <v>45660</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>125</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>828</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="3">
+      <c r="D48" s="3">
         <v>45660</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>22</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>14325</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="3">
+      <c r="D49" s="3">
         <v>45660</v>
       </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
         <v>17750</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="3">
+      <c r="D50" s="3">
         <v>45470</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>20</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>4092</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="3">
+      <c r="D51" s="3">
         <v>45659</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>29725</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="3">
+      <c r="D52" s="3">
         <v>45656</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>30</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>7070</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="3">
+      <c r="D53" s="3">
         <v>45656</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>40</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>7560</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="3">
+      <c r="D54" s="3">
         <v>45652</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>50</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>2710</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="3">
+      <c r="D55" s="3">
         <v>45652</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>56</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>6680</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
-      <c r="C56" s="3">
+      <c r="D56" s="3">
         <v>45649</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>2</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>6640</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>5</v>
       </c>
       <c r="B57" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="3">
+      <c r="D57" s="3">
         <v>45649</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>3</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>33725</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>45649</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>72</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>1645</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>5</v>
       </c>
       <c r="B59" t="s">
         <v>30</v>
       </c>
-      <c r="C59" s="3">
+      <c r="D59" s="3">
         <v>45642</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>8</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>6690</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="3">
+      <c r="D60" s="3">
         <v>45642</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>72</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>736.6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="3">
+      <c r="D61" s="3">
         <v>45642</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>38</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>13525</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>5</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>45639</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>25</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>2670</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
       <c r="B63" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="3">
+      <c r="D63" s="3">
         <v>45638</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>32</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>2640</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="3">
+      <c r="D64" s="3">
         <v>45638</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>16</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>9760</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>9</v>
       </c>
-      <c r="C65" s="3">
+      <c r="D65" s="3">
         <v>45630</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>703</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>715.8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66" s="3">
+      <c r="D66" s="3">
         <v>45628</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>283</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>713.4</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>9</v>
       </c>
-      <c r="C67" s="3">
+      <c r="D67" s="3">
         <v>45628</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>420</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>715.7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="3">
+      <c r="D68" s="3">
         <v>45621</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>56</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>6050</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="3">
+      <c r="D69" s="3">
         <v>45621</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>18</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>19250</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
       </c>
-      <c r="C70" s="3">
+      <c r="D70" s="3">
         <v>45621</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>39</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>12825</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>5</v>
       </c>
       <c r="B71" t="s">
         <v>15</v>
       </c>
-      <c r="C71" s="3">
+      <c r="D71" s="3">
         <v>45618</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>72</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>1545</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>5</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
       </c>
-      <c r="C72" s="3">
+      <c r="D72" s="3">
         <v>45618</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>37</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>5550</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="3">
+      <c r="D73" s="3">
         <v>45618</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>37</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>6220</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="3">
+      <c r="D74" s="3">
         <v>45618</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>10</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>9090</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>5</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="3">
+      <c r="D75" s="3">
         <v>45615</v>
       </c>
-      <c r="D75">
-        <v>5</v>
-      </c>
-      <c r="E75">
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75">
         <v>22900</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="3">
+      <c r="D76" s="3">
         <v>45615</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>161</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>714.5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="3">
+      <c r="D77" s="3">
         <v>45611</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>48</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>3505</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="3">
+      <c r="D78" s="3">
         <v>45610</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>10</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>11775</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>27</v>
       </c>
-      <c r="C79" s="3">
+      <c r="D79" s="3">
         <v>45610</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>18550</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
       <c r="B80" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="3">
+      <c r="D80" s="3">
         <v>45609</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>3</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>21375</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="3">
+      <c r="D81" s="3">
         <v>45609</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>12875</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>5</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="3">
+      <c r="D82" s="3">
         <v>45609</v>
       </c>
-      <c r="D82">
+      <c r="F82">
         <v>6</v>
       </c>
-      <c r="E82">
+      <c r="G82">
         <v>24275</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>5</v>
       </c>
       <c r="B83" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="3">
+      <c r="D83" s="3">
         <v>45609</v>
       </c>
-      <c r="D83">
+      <c r="F83">
         <v>3</v>
       </c>
-      <c r="E83">
+      <c r="G83">
         <v>14100</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>5</v>
       </c>
       <c r="B84" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="3">
+      <c r="D84" s="3">
         <v>45609</v>
       </c>
-      <c r="D84">
+      <c r="F84">
         <v>111</v>
       </c>
-      <c r="E84">
+      <c r="G84">
         <v>1780</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="3">
+      <c r="D85" s="3">
         <v>45609</v>
       </c>
-      <c r="D85">
+      <c r="F85">
         <v>289</v>
       </c>
-      <c r="E85">
+      <c r="G85">
         <v>716</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="3">
+      <c r="D86" s="3">
         <v>45609</v>
       </c>
-      <c r="D86">
+      <c r="F86">
         <v>276</v>
       </c>
-      <c r="E86">
+      <c r="G86">
         <v>715.3</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>9</v>
       </c>
-      <c r="C87" s="3">
+      <c r="D87" s="3">
         <v>45607</v>
       </c>
-      <c r="D87">
+      <c r="F87">
         <v>998</v>
       </c>
-      <c r="E87">
+      <c r="G87">
         <v>712.4</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="3">
+      <c r="D88" s="3">
         <v>45607</v>
       </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88">
+      <c r="F88">
+        <v>5</v>
+      </c>
+      <c r="G88">
         <v>18350</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>5</v>
       </c>
       <c r="B89" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="3">
+      <c r="D89" s="3">
         <v>45607</v>
       </c>
-      <c r="D89">
-        <v>7</v>
-      </c>
-      <c r="E89">
+      <c r="F89">
+        <v>7</v>
+      </c>
+      <c r="G89">
         <v>13275</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" s="3">
+      <c r="D90" s="3">
         <v>45607</v>
       </c>
-      <c r="D90">
+      <c r="F90">
         <v>15</v>
       </c>
-      <c r="E90">
+      <c r="G90">
         <v>12925</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>5</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="3">
+      <c r="D91" s="3">
         <v>45604</v>
       </c>
-      <c r="D91">
+      <c r="F91">
         <v>2</v>
       </c>
-      <c r="E91">
+      <c r="G91">
         <v>7110</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>5</v>
       </c>
       <c r="B92" t="s">
         <v>31</v>
       </c>
-      <c r="C92" s="3">
+      <c r="D92" s="3">
         <v>45604</v>
       </c>
-      <c r="D92">
+      <c r="F92">
         <v>13</v>
       </c>
-      <c r="E92">
+      <c r="G92">
         <v>17575</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="3">
+      <c r="D93" s="3">
         <v>45604</v>
       </c>
-      <c r="D93">
+      <c r="F93">
         <v>351</v>
       </c>
-      <c r="E93">
+      <c r="G93">
         <v>702.3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="3">
+      <c r="D94" s="3">
         <v>45600</v>
       </c>
-      <c r="D94">
+      <c r="F94">
         <v>743</v>
       </c>
-      <c r="E94">
+      <c r="G94">
         <v>677.8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="3">
+      <c r="D95" s="3">
         <v>45593</v>
       </c>
-      <c r="D95">
+      <c r="F95">
         <v>44</v>
       </c>
-      <c r="E95">
+      <c r="G95">
         <v>5370</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="3">
+      <c r="D96" s="3">
         <v>45593</v>
       </c>
-      <c r="D96">
+      <c r="F96">
         <v>26</v>
       </c>
-      <c r="E96">
+      <c r="G96">
         <v>9490</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>5</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
-      <c r="C97" s="3">
+      <c r="D97" s="3">
         <v>45593</v>
       </c>
-      <c r="D97">
+      <c r="F97">
         <v>77</v>
       </c>
-      <c r="E97">
+      <c r="G97">
         <v>6400</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="3">
+      <c r="D98" s="3">
         <v>45593</v>
       </c>
-      <c r="D98">
+      <c r="F98">
         <v>1470</v>
       </c>
-      <c r="E98">
+      <c r="G98">
         <v>672</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99" s="3">
+      <c r="D99" s="3">
         <v>45588</v>
       </c>
-      <c r="D99">
+      <c r="F99">
         <v>124</v>
       </c>
-      <c r="E99">
+      <c r="G99">
         <v>633.9</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="3">
+      <c r="D100" s="3">
         <v>45588</v>
       </c>
-      <c r="D100">
-        <v>7</v>
-      </c>
-      <c r="E100">
+      <c r="F100">
+        <v>7</v>
+      </c>
+      <c r="G100">
         <v>16875</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
       <c r="B101" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="3">
+      <c r="D101" s="3">
         <v>45588</v>
       </c>
-      <c r="D101">
+      <c r="F101">
         <v>12</v>
       </c>
-      <c r="E101">
+      <c r="G101">
         <v>26450</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C102" s="3">
+      <c r="D102" s="3">
         <v>45586</v>
       </c>
-      <c r="D102">
+      <c r="F102">
         <v>784</v>
       </c>
-      <c r="E102">
+      <c r="G102">
         <v>642.6</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="3">
+      <c r="D103" s="3">
         <v>45583</v>
       </c>
-      <c r="D103">
+      <c r="F103">
         <v>12</v>
       </c>
-      <c r="E103">
+      <c r="G103">
         <v>17625</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
       <c r="B104" t="s">
         <v>34</v>
       </c>
-      <c r="C104" s="3">
+      <c r="D104" s="3">
         <v>45583</v>
       </c>
-      <c r="D104">
+      <c r="F104">
         <v>140</v>
       </c>
-      <c r="E104">
+      <c r="G104">
         <v>1560</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>5</v>
       </c>
       <c r="B105" t="s">
         <v>18</v>
       </c>
-      <c r="C105" s="3">
+      <c r="D105" s="3">
         <v>45569</v>
       </c>
-      <c r="D105">
+      <c r="F105">
         <v>1</v>
       </c>
-      <c r="E105">
+      <c r="G105">
         <v>6350</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
       <c r="B106" t="s">
         <v>35</v>
       </c>
-      <c r="C106" s="3">
+      <c r="D106" s="3">
         <v>45568</v>
       </c>
-      <c r="D106">
+      <c r="F106">
         <v>33</v>
       </c>
-      <c r="E106">
+      <c r="G106">
         <v>17100</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
       <c r="B107" t="s">
         <v>36</v>
       </c>
-      <c r="C107" s="3">
+      <c r="D107" s="3">
         <v>45561</v>
       </c>
-      <c r="D107">
+      <c r="F107">
         <v>6</v>
       </c>
-      <c r="E107">
+      <c r="G107">
         <v>29000</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
       </c>
-      <c r="C108" s="3">
+      <c r="D108" s="3">
         <v>45561</v>
       </c>
-      <c r="D108">
+      <c r="F108">
         <v>17</v>
       </c>
-      <c r="E108">
+      <c r="G108">
         <v>2855</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
       </c>
-      <c r="C109" s="3">
+      <c r="D109" s="3">
         <v>45561</v>
       </c>
-      <c r="D109">
+      <c r="F109">
         <v>47</v>
       </c>
-      <c r="E109">
+      <c r="G109">
         <v>5280</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
       <c r="B110" t="s">
         <v>37</v>
       </c>
-      <c r="C110" s="3">
+      <c r="D110" s="3">
         <v>45561</v>
       </c>
-      <c r="D110">
+      <c r="F110">
         <v>145</v>
       </c>
-      <c r="E110">
+      <c r="G110">
         <v>307</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="3">
+      <c r="D111" s="3">
         <v>45561</v>
       </c>
-      <c r="D111">
+      <c r="F111">
         <v>18</v>
       </c>
-      <c r="E111">
+      <c r="G111">
         <v>8020</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>5</v>
       </c>
       <c r="B112" t="s">
         <v>34</v>
       </c>
-      <c r="C112" s="3">
+      <c r="D112" s="3">
         <v>45558</v>
       </c>
-      <c r="D112">
+      <c r="F112">
         <v>15</v>
       </c>
-      <c r="E112">
+      <c r="G112">
         <v>1630</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>5</v>
       </c>
       <c r="B113" t="s">
         <v>36</v>
       </c>
-      <c r="C113" s="3">
+      <c r="D113" s="3">
         <v>45558</v>
       </c>
-      <c r="D113">
+      <c r="F113">
         <v>6</v>
       </c>
-      <c r="E113">
+      <c r="G113">
         <v>28950</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
       <c r="B114" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="3">
+      <c r="D114" s="3">
         <v>45558</v>
       </c>
-      <c r="D114">
+      <c r="F114">
         <v>8</v>
       </c>
-      <c r="E114">
+      <c r="G114">
         <v>25400</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
       <c r="B115" t="s">
         <v>18</v>
       </c>
-      <c r="C115" s="3">
+      <c r="D115" s="3">
         <v>45553</v>
       </c>
-      <c r="D115">
+      <c r="F115">
         <v>102</v>
       </c>
-      <c r="E115">
+      <c r="G115">
         <v>6010</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>5</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
       </c>
-      <c r="C116" s="3">
+      <c r="D116" s="3">
         <v>45547</v>
       </c>
-      <c r="D116">
+      <c r="F116">
         <v>1</v>
       </c>
-      <c r="E116">
+      <c r="G116">
         <v>2940</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>5</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="3">
+      <c r="D117" s="3">
         <v>45547</v>
       </c>
-      <c r="D117">
+      <c r="F117">
         <v>20</v>
       </c>
-      <c r="E117">
+      <c r="G117">
         <v>5400</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>5</v>
       </c>
       <c r="B118" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="3">
+      <c r="D118" s="3">
         <v>45547</v>
       </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118">
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
         <v>19225</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
       </c>
-      <c r="C119" s="3">
+      <c r="D119" s="3">
         <v>45547</v>
       </c>
-      <c r="D119">
+      <c r="F119">
         <v>12</v>
       </c>
-      <c r="E119">
+      <c r="G119">
         <v>23950</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="3">
+      <c r="D120" s="3">
         <v>45547</v>
       </c>
-      <c r="D120">
+      <c r="F120">
         <v>39</v>
       </c>
-      <c r="E120">
+      <c r="G120">
         <v>6290</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="3">
+      <c r="D121" s="3">
         <v>45547</v>
       </c>
-      <c r="D121">
+      <c r="F121">
         <v>35</v>
       </c>
-      <c r="E121">
+      <c r="G121">
         <v>14050</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>5</v>
       </c>
       <c r="B122" t="s">
         <v>28</v>
       </c>
-      <c r="C122" s="3">
+      <c r="D122" s="3">
         <v>45546</v>
       </c>
-      <c r="D122">
-        <v>7</v>
-      </c>
-      <c r="E122">
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
         <v>18600</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>5</v>
       </c>
       <c r="B123" t="s">
         <v>34</v>
       </c>
-      <c r="C123" s="3">
+      <c r="D123" s="3">
         <v>45546</v>
       </c>
-      <c r="D123">
+      <c r="F123">
         <v>63</v>
       </c>
-      <c r="E123">
+      <c r="G123">
         <v>1560</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>5</v>
       </c>
       <c r="B124" t="s">
         <v>35</v>
       </c>
-      <c r="C124" s="3">
+      <c r="D124" s="3">
         <v>45546</v>
       </c>
-      <c r="D124">
+      <c r="F124">
         <v>17</v>
       </c>
-      <c r="E124">
+      <c r="G124">
         <v>17375</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>5</v>
       </c>
       <c r="B125" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="3">
+      <c r="D125" s="3">
         <v>45546</v>
       </c>
-      <c r="D125">
+      <c r="F125">
         <v>83</v>
       </c>
-      <c r="E125">
+      <c r="G125">
         <v>5890</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
       </c>
-      <c r="C126" s="3">
+      <c r="D126" s="3">
         <v>45546</v>
       </c>
-      <c r="D126">
+      <c r="F126">
         <v>71</v>
       </c>
-      <c r="E126">
+      <c r="G126">
         <v>13825</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>5</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
-      <c r="C127" s="3">
+      <c r="D127" s="3">
         <v>45546</v>
       </c>
-      <c r="D127">
+      <c r="F127">
         <v>12</v>
       </c>
-      <c r="E127">
+      <c r="G127">
         <v>8060</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>5</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="3">
+      <c r="D128" s="3">
         <v>45546</v>
       </c>
-      <c r="D128">
+      <c r="F128">
         <v>18</v>
       </c>
-      <c r="E128">
+      <c r="G128">
         <v>5400</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>5</v>
       </c>
       <c r="B129" t="s">
         <v>34</v>
       </c>
-      <c r="C129" s="3">
+      <c r="D129" s="3">
         <v>45540</v>
       </c>
-      <c r="D129">
+      <c r="F129">
         <v>62</v>
       </c>
-      <c r="E129">
+      <c r="G129">
         <v>1585</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>5</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
       </c>
-      <c r="C130" s="3">
+      <c r="D130" s="3">
         <v>45540</v>
       </c>
-      <c r="D130">
+      <c r="F130">
         <v>6</v>
       </c>
-      <c r="E130">
+      <c r="G130">
         <v>14375</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>5</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
       </c>
-      <c r="C131" s="3">
+      <c r="D131" s="3">
         <v>45540</v>
       </c>
-      <c r="D131">
+      <c r="F131">
         <v>16</v>
       </c>
-      <c r="E131">
+      <c r="G131">
         <v>2920</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>5</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
-      <c r="C132" s="3">
+      <c r="D132" s="3">
         <v>45540</v>
       </c>
-      <c r="D132">
+      <c r="F132">
         <v>6</v>
       </c>
-      <c r="E132">
+      <c r="G132">
         <v>8210</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>5</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
-      <c r="C133" s="3">
+      <c r="D133" s="3">
         <v>45540</v>
       </c>
-      <c r="D133">
+      <c r="F133">
         <v>9</v>
       </c>
-      <c r="E133">
+      <c r="G133">
         <v>5410</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>5</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
       </c>
-      <c r="C134" s="3">
+      <c r="D134" s="3">
         <v>45540</v>
       </c>
-      <c r="D134">
+      <c r="F134">
         <v>145</v>
       </c>
-      <c r="E134">
+      <c r="G134">
         <v>340</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>5</v>
       </c>
       <c r="B135" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="3">
+      <c r="D135" s="3">
         <v>45540</v>
       </c>
-      <c r="D135">
+      <c r="F135">
         <v>8</v>
       </c>
-      <c r="E135">
+      <c r="G135">
         <v>17600</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>5</v>
       </c>
       <c r="B136" t="s">
         <v>35</v>
       </c>
-      <c r="C136" s="3">
+      <c r="D136" s="3">
         <v>45540</v>
       </c>
-      <c r="D136">
+      <c r="F136">
         <v>3</v>
       </c>
-      <c r="E136">
+      <c r="G136">
         <v>17725</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>7</v>
       </c>
       <c r="B137" t="s">
         <v>18</v>
       </c>
-      <c r="C137" s="3">
+      <c r="D137" s="3">
         <v>45532</v>
       </c>
-      <c r="D137">
+      <c r="F137">
         <v>30</v>
       </c>
-      <c r="E137">
+      <c r="G137">
         <v>6760</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
       <c r="B138" t="s">
         <v>33</v>
       </c>
-      <c r="C138" s="3">
+      <c r="D138" s="3">
         <v>45532</v>
       </c>
-      <c r="D138">
+      <c r="F138">
         <v>9</v>
       </c>
-      <c r="E138">
+      <c r="G138">
         <v>24375</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
       <c r="B139" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="3">
+      <c r="D139" s="3">
         <v>45532</v>
       </c>
-      <c r="D139">
+      <c r="F139">
         <v>48</v>
       </c>
-      <c r="E139">
+      <c r="G139">
         <v>3640</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>34</v>
       </c>
-      <c r="C140" s="3">
+      <c r="D140" s="3">
         <v>45532</v>
       </c>
-      <c r="D140">
+      <c r="F140">
         <v>102</v>
       </c>
-      <c r="E140">
+      <c r="G140">
         <v>1545</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>5</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="3">
+      <c r="D141" s="3">
         <v>45512</v>
       </c>
-      <c r="D141">
+      <c r="F141">
         <v>24</v>
       </c>
-      <c r="E141">
+      <c r="G141">
         <v>12650</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>7</v>
       </c>
       <c r="B142" t="s">
         <v>39</v>
       </c>
-      <c r="C142" s="3">
+      <c r="D142" s="3">
         <v>45512</v>
       </c>
-      <c r="D142">
+      <c r="F142">
         <v>9</v>
       </c>
-      <c r="E142">
+      <c r="G142">
         <v>34875</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>5</v>
       </c>
       <c r="B143" t="s">
         <v>34</v>
       </c>
-      <c r="C143" s="3">
+      <c r="D143" s="3">
         <v>45481</v>
       </c>
-      <c r="D143">
+      <c r="F143">
         <v>2</v>
       </c>
-      <c r="E143">
+      <c r="G143">
         <v>1946.5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>5</v>
       </c>
       <c r="B144" t="s">
         <v>35</v>
       </c>
-      <c r="C144" s="3">
+      <c r="D144" s="3">
         <v>45481</v>
       </c>
-      <c r="D144">
-        <v>5</v>
-      </c>
-      <c r="E144">
+      <c r="F144">
+        <v>5</v>
+      </c>
+      <c r="G144">
         <v>21913</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>5</v>
       </c>
       <c r="B145" t="s">
         <v>34</v>
       </c>
-      <c r="C145" s="3">
+      <c r="D145" s="3">
         <v>45481</v>
       </c>
-      <c r="D145">
+      <c r="F145">
         <v>100</v>
       </c>
-      <c r="E145">
+      <c r="G145">
         <v>1964</v>
       </c>
     </row>
-    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>7</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
       </c>
-      <c r="C146" s="3">
+      <c r="D146" s="3">
         <v>45481</v>
       </c>
-      <c r="D146">
+      <c r="F146">
         <v>50</v>
       </c>
-      <c r="E146">
+      <c r="G146">
         <v>3956.05</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="3">
+      <c r="D147" s="3">
         <v>45481</v>
       </c>
-      <c r="D147">
+      <c r="F147">
         <v>16</v>
       </c>
-      <c r="E147">
+      <c r="G147">
         <v>7150</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="3">
+      <c r="D148" s="3">
         <v>45475</v>
       </c>
-      <c r="D148">
+      <c r="F148">
         <v>1</v>
       </c>
-      <c r="E148">
+      <c r="G148">
         <v>3995</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>5</v>
       </c>
       <c r="B149" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="3">
+      <c r="D149" s="3">
         <v>45470</v>
       </c>
-      <c r="D149">
+      <c r="F149">
         <v>48</v>
       </c>
-      <c r="E149">
+      <c r="G149">
         <v>4333</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>7</v>
       </c>
       <c r="B150" t="s">
         <v>25</v>
       </c>
-      <c r="C150" s="3">
+      <c r="D150" s="3">
         <v>45470</v>
       </c>
-      <c r="D150">
+      <c r="F150">
         <v>6</v>
       </c>
-      <c r="E150">
+      <c r="G150">
         <v>20387.5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
       <c r="B151" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="3">
+      <c r="D151" s="3">
         <v>45659</v>
       </c>
-      <c r="D151">
+      <c r="F151">
         <v>10</v>
       </c>
-      <c r="E151">
+      <c r="G151">
         <v>8020</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="3">
+      <c r="D152" s="3">
         <v>45461</v>
       </c>
-      <c r="D152">
+      <c r="F152">
         <v>17</v>
       </c>
-      <c r="E152">
+      <c r="G152">
         <v>13655</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>5</v>
       </c>
       <c r="B153" t="s">
         <v>39</v>
       </c>
-      <c r="C153" s="3">
+      <c r="D153" s="3">
         <v>45461</v>
       </c>
-      <c r="D153">
+      <c r="F153">
         <v>3</v>
       </c>
-      <c r="E153">
+      <c r="G153">
         <v>34725</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
       </c>
-      <c r="C154" s="3">
+      <c r="D154" s="3">
         <v>45461</v>
       </c>
-      <c r="D154">
+      <c r="F154">
         <v>4</v>
       </c>
-      <c r="E154">
+      <c r="G154">
         <v>26391</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>5</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="3">
+      <c r="D155" s="3">
         <v>45455</v>
       </c>
-      <c r="D155">
+      <c r="F155">
         <v>29</v>
       </c>
-      <c r="E155">
+      <c r="G155">
         <v>4305.1499999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>5</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
       </c>
-      <c r="C156" s="3">
+      <c r="D156" s="3">
         <v>45455</v>
       </c>
-      <c r="D156">
+      <c r="F156">
         <v>6</v>
       </c>
-      <c r="E156">
+      <c r="G156">
         <v>7650</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
       </c>
-      <c r="C157" s="3">
+      <c r="D157" s="3">
         <v>45684</v>
       </c>
-      <c r="D157">
+      <c r="F157">
         <v>10</v>
       </c>
-      <c r="E157">
+      <c r="G157">
         <v>8570</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>5</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
-      <c r="C158" s="3">
+      <c r="D158" s="3">
         <v>45450</v>
       </c>
-      <c r="D158">
+      <c r="F158">
         <v>10</v>
       </c>
-      <c r="E158">
+      <c r="G158">
         <v>4160</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>5</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="3">
+      <c r="D159" s="3">
         <v>45450</v>
       </c>
-      <c r="D159">
-        <v>5</v>
-      </c>
-      <c r="E159">
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159">
         <v>7538.95</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>5</v>
       </c>
       <c r="B160" t="s">
         <v>17</v>
       </c>
-      <c r="C160" s="3">
+      <c r="D160" s="3">
         <v>45687</v>
       </c>
-      <c r="D160">
+      <c r="F160">
         <v>16</v>
       </c>
-      <c r="E160">
+      <c r="G160">
         <v>9200</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>5</v>
       </c>
       <c r="B161" t="s">
         <v>38</v>
       </c>
-      <c r="C161" s="3">
+      <c r="D161" s="3">
         <v>45449</v>
       </c>
-      <c r="D161">
+      <c r="F161">
         <v>8</v>
       </c>
-      <c r="E161">
+      <c r="G161">
         <v>24450</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>5</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
       </c>
-      <c r="C162" s="3">
+      <c r="D162" s="3">
         <v>45449</v>
       </c>
-      <c r="D162">
+      <c r="F162">
         <v>25</v>
       </c>
-      <c r="E162">
+      <c r="G162">
         <v>12899.5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>5</v>
       </c>
       <c r="B163" t="s">
         <v>18</v>
       </c>
-      <c r="C163" s="3">
+      <c r="D163" s="3">
         <v>45449</v>
       </c>
-      <c r="D163">
+      <c r="F163">
         <v>3</v>
       </c>
-      <c r="E163">
+      <c r="G163">
         <v>66399.5</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>5</v>
       </c>
       <c r="B164" t="s">
         <v>33</v>
       </c>
-      <c r="C164" s="3">
+      <c r="D164" s="3">
         <v>45449</v>
       </c>
-      <c r="D164">
-        <v>5</v>
-      </c>
-      <c r="E164">
+      <c r="F164">
+        <v>5</v>
+      </c>
+      <c r="G164">
         <v>23650</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>7</v>
       </c>
       <c r="B165" t="s">
         <v>17</v>
       </c>
-      <c r="C165" s="3">
+      <c r="D165" s="3">
         <v>45699</v>
       </c>
-      <c r="D165">
+      <c r="F165">
         <v>16</v>
       </c>
-      <c r="E165">
+      <c r="G165">
         <v>7900</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>5</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
-      <c r="C166" s="3">
+      <c r="D166" s="3">
         <v>45448</v>
       </c>
-      <c r="D166">
-        <v>5</v>
-      </c>
-      <c r="E166">
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166">
         <v>7837.9</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
       </c>
-      <c r="C167" s="3">
+      <c r="D167" s="3">
         <v>45448</v>
       </c>
-      <c r="D167">
+      <c r="F167">
         <v>10</v>
       </c>
-      <c r="E167">
+      <c r="G167">
         <v>4245</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
       <c r="B168" t="s">
         <v>25</v>
       </c>
-      <c r="C168" s="3">
+      <c r="D168" s="3">
         <v>45448</v>
       </c>
-      <c r="D168">
+      <c r="F168">
         <v>6</v>
       </c>
-      <c r="E168">
+      <c r="G168">
         <v>20360.5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>5</v>
       </c>
       <c r="B169" t="s">
         <v>39</v>
       </c>
-      <c r="C169" s="3">
+      <c r="D169" s="3">
         <v>45448</v>
       </c>
-      <c r="D169">
+      <c r="F169">
         <v>6</v>
       </c>
-      <c r="E169">
+      <c r="G169">
         <v>34520</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>5</v>
       </c>
       <c r="B170" t="s">
         <v>18</v>
       </c>
-      <c r="C170" s="3">
+      <c r="D170" s="3">
         <v>45448</v>
       </c>
-      <c r="D170">
+      <c r="F170">
         <v>3</v>
       </c>
-      <c r="E170">
+      <c r="G170">
         <v>64928</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>5</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
       </c>
-      <c r="C171" s="3">
+      <c r="D171" s="3">
         <v>45448</v>
       </c>
-      <c r="D171">
+      <c r="F171">
         <v>40</v>
       </c>
-      <c r="E171">
+      <c r="G171">
         <v>12768</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E171" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="AAPL"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:E165">
-      <sortCondition ref="C1:C171"/>
+  <autoFilter ref="A1:G171" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:G165">
+      <sortCondition ref="D1:D171"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 D1:E1 B1 A7 D7:E7 B7 A4 D4:E4 B4 A8 D8:E8 B8 A2 D2:E3 B2:B3 A166:A171 D166:E171 B166:B171 A11:A16 D11:E16 B11:B16 A9:A10 D9:E10 B9:B10 A5:A6 D5:E6 B5:B6 C1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 F1:G1 B1 A7 F7:G7 B7 A4 F4:G4 B4 A8 F8:G8 B8 A2 F2:G3 B2:B3 A166:A171 F166:G171 B166:B171 A11:A16 F11:G16 B11:B16 A9:A10 F9:G10 B9:B10 A5:A6 F5:G6 B5:B6 D1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3520,11 +3522,11 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A2)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A2)</f>
         <v>376</v>
       </c>
       <c r="C2">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A2)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A2)</f>
         <v>189</v>
       </c>
       <c r="D2">
@@ -3537,11 +3539,11 @@
         <v>34</v>
       </c>
       <c r="B3">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A3)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A3)</f>
         <v>242</v>
       </c>
       <c r="C3">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A3)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A3)</f>
         <v>242</v>
       </c>
       <c r="D3">
@@ -3554,11 +3556,11 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A4)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A4)</f>
         <v>45</v>
       </c>
       <c r="C4">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A4)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A4)</f>
         <v>6</v>
       </c>
       <c r="D4">
@@ -3571,11 +3573,11 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A5)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A5)</f>
         <v>46</v>
       </c>
       <c r="C5">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A5)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A5)</f>
         <v>46</v>
       </c>
       <c r="D5">
@@ -3588,11 +3590,11 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A6)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A6)</f>
         <v>72</v>
       </c>
       <c r="C6">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A6)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A6)</f>
         <v>72</v>
       </c>
       <c r="D6">
@@ -3605,11 +3607,11 @@
         <v>38</v>
       </c>
       <c r="B7">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A7)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A7)</f>
         <v>8</v>
       </c>
       <c r="C7">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A7)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A7)</f>
         <v>8</v>
       </c>
       <c r="D7">
@@ -3622,11 +3624,11 @@
         <v>37</v>
       </c>
       <c r="B8">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A8)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A8)</f>
         <v>145</v>
       </c>
       <c r="C8">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A8)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A8)</f>
         <v>145</v>
       </c>
       <c r="D8">
@@ -3639,11 +3641,11 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A9)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A9)</f>
         <v>187</v>
       </c>
       <c r="C9">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A9)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A9)</f>
         <v>187</v>
       </c>
       <c r="D9">
@@ -3656,11 +3658,11 @@
         <v>32</v>
       </c>
       <c r="B10">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A10)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A10)</f>
         <v>10</v>
       </c>
       <c r="C10">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A10)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A10)</f>
         <v>10</v>
       </c>
       <c r="D10">
@@ -3673,11 +3675,11 @@
         <v>26</v>
       </c>
       <c r="B11">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A11)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A11)</f>
         <v>57</v>
       </c>
       <c r="C11">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A11)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A11)</f>
         <v>57</v>
       </c>
       <c r="D11">
@@ -3690,11 +3692,11 @@
         <v>30</v>
       </c>
       <c r="B12">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A12)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A12)</f>
         <v>8</v>
       </c>
       <c r="C12">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A12)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A12)</f>
         <v>0</v>
       </c>
       <c r="D12">
@@ -3707,11 +3709,11 @@
         <v>22</v>
       </c>
       <c r="B13">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A13)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A13)</f>
         <v>13</v>
       </c>
       <c r="C13">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A13)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A13)</f>
         <v>0</v>
       </c>
       <c r="D13">
@@ -3724,11 +3726,11 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A14)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A14)</f>
         <v>1219</v>
       </c>
       <c r="C14">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A14)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A14)</f>
         <v>9438</v>
       </c>
       <c r="D14">
@@ -3741,11 +3743,11 @@
         <v>24</v>
       </c>
       <c r="B15">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A15)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A15)</f>
         <v>3914</v>
       </c>
       <c r="C15">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A15)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A15)</f>
         <v>0</v>
       </c>
       <c r="D15">
@@ -3758,11 +3760,11 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A16)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A16)</f>
         <v>272</v>
       </c>
       <c r="C16">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A16)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A16)</f>
         <v>209</v>
       </c>
       <c r="D16">
@@ -3775,11 +3777,11 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A17)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A17)</f>
         <v>87</v>
       </c>
       <c r="C17">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A17)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A17)</f>
         <v>0</v>
       </c>
       <c r="D17">
@@ -3792,11 +3794,11 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A18)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A18)</f>
         <v>48</v>
       </c>
       <c r="C18">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A18)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A18)</f>
         <v>48</v>
       </c>
       <c r="D18">
@@ -3809,11 +3811,11 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A19)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A19)</f>
         <v>6</v>
       </c>
       <c r="C19">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A19)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A19)</f>
         <v>0</v>
       </c>
       <c r="D19">
@@ -3826,11 +3828,11 @@
         <v>31</v>
       </c>
       <c r="B20">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A20)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A20)</f>
         <v>18</v>
       </c>
       <c r="C20">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A20)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A20)</f>
         <v>18</v>
       </c>
       <c r="D20">
@@ -3843,11 +3845,11 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A21)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A21)</f>
         <v>6</v>
       </c>
       <c r="C21">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A21)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A21)</f>
         <v>6</v>
       </c>
       <c r="D21">
@@ -3860,11 +3862,11 @@
         <v>14</v>
       </c>
       <c r="B22">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A22)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A22)</f>
         <v>166</v>
       </c>
       <c r="C22">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A22)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A22)</f>
         <v>166</v>
       </c>
       <c r="D22">
@@ -3877,11 +3879,11 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A23)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A23)</f>
         <v>33</v>
       </c>
       <c r="C23">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A23)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A23)</f>
         <v>33</v>
       </c>
       <c r="D23">
@@ -3894,11 +3896,11 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A24)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A24)</f>
         <v>8</v>
       </c>
       <c r="C24">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A24)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A24)</f>
         <v>8</v>
       </c>
       <c r="D24">
@@ -3911,11 +3913,11 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A25)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A25)</f>
         <v>157</v>
       </c>
       <c r="C25">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A25)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A25)</f>
         <v>132</v>
       </c>
       <c r="D25">
@@ -3928,11 +3930,11 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A26)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A26)</f>
         <v>111</v>
       </c>
       <c r="C26">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A26)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A26)</f>
         <v>111</v>
       </c>
       <c r="D26">
@@ -3945,11 +3947,11 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A27)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A27)</f>
         <v>35</v>
       </c>
       <c r="C27">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A27)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A27)</f>
         <v>20</v>
       </c>
       <c r="D27">
@@ -3962,11 +3964,11 @@
         <v>11</v>
       </c>
       <c r="B28">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A28)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A28)</f>
         <v>4</v>
       </c>
       <c r="C28">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A28)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A28)</f>
         <v>0</v>
       </c>
       <c r="D28">
@@ -3979,11 +3981,11 @@
         <v>39</v>
       </c>
       <c r="B29">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A29)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A29)</f>
         <v>9</v>
       </c>
       <c r="C29">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A29)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A29)</f>
         <v>9</v>
       </c>
       <c r="D29">
@@ -3996,11 +3998,11 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A30)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A30)</f>
         <v>65</v>
       </c>
       <c r="C30">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A30)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A30)</f>
         <v>65</v>
       </c>
       <c r="D30">
@@ -4013,11 +4015,11 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A31)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A31)</f>
         <v>56</v>
       </c>
       <c r="C31">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A31)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A31)</f>
         <v>56</v>
       </c>
       <c r="D31">
@@ -4030,11 +4032,11 @@
         <v>28</v>
       </c>
       <c r="B32">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A32)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A32)</f>
         <v>15</v>
       </c>
       <c r="C32">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A32)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A32)</f>
         <v>15</v>
       </c>
       <c r="D32">
@@ -4047,11 +4049,11 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A33)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A33)</f>
         <v>21</v>
       </c>
       <c r="C33">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A33)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A33)</f>
         <v>21</v>
       </c>
       <c r="D33">
@@ -4064,11 +4066,11 @@
         <v>21</v>
       </c>
       <c r="B34">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Compra 24hs",ordenes!B:B,A34)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Compra 24hs",ordenes!B:B,A34)</f>
         <v>67</v>
       </c>
       <c r="C34">
-        <f>SUMIFS(ordenes!D:D,ordenes!A:A,"Venta 24hs",ordenes!B:B,A34)</f>
+        <f>SUMIFS(ordenes!F:F,ordenes!A:A,"Venta 24hs",ordenes!B:B,A34)</f>
         <v>0</v>
       </c>
       <c r="D34">
@@ -5762,36 +5764,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36ED3CD7-A521-424D-80EB-D48181DEE413}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80F7FE7-652E-4A2E-97F2-B321897F12E3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/ordenes.xlsx
+++ b/excel/ordenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bolsa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C298E99A-8E86-41EA-AC94-E4629CF2BFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8D409-48A4-41B0-A766-D14F8D035409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ameo" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="841">
   <si>
     <t>Operacion</t>
   </si>
@@ -167,21 +167,6 @@
   </si>
   <si>
     <t>Bono</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>ccl</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>promedio</t>
-  </si>
-  <si>
-    <t>fecha</t>
   </si>
   <si>
     <t>Tipo</t>
@@ -2580,7 +2565,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2631,7 +2616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2643,20 +2628,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2674,42 +2655,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEE0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEE0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEE0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEE0000"/>
+        <color rgb="FF00B0F0"/>
       </font>
     </dxf>
     <dxf>
@@ -2799,7 +2745,42 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00B0F0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
       </font>
     </dxf>
     <dxf>
@@ -3209,16 +3190,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC8571-EDD7-4FFF-A3DB-3F7929CF1B76}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="13.19921875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.19921875" style="12" customWidth="1"/>
-    <col min="8" max="12" width="13.19921875" customWidth="1"/>
+    <col min="7" max="12" width="13.19921875" customWidth="1"/>
     <col min="13" max="13" width="13.19921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3241,108 +3221,94 @@
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>12768</v>
+        <v>1946.5</v>
       </c>
       <c r="E2">
-        <v>1304.57</v>
+        <v>1386.59</v>
       </c>
       <c r="F2" s="6">
-        <v>45448</v>
-      </c>
-      <c r="H2">
-        <f>SUM(C1:C2)</f>
-        <v>40</v>
-      </c>
-      <c r="I2" s="8">
-        <f>SUMPRODUCT(D1:D2,C1:C2)</f>
-        <v>510720</v>
-      </c>
-      <c r="J2" s="3">
-        <f>+I2/H2</f>
-        <v>12768</v>
-      </c>
-      <c r="K2" s="8">
-        <f>SUMPRODUCT(E1:E2,C1:C2)</f>
-        <v>52182.799999999996</v>
-      </c>
-      <c r="L2" s="3">
-        <f>+K2/H2</f>
-        <v>1304.57</v>
-      </c>
-      <c r="M2" s="6">
-        <f>+F2</f>
-        <v>45448</v>
-      </c>
+        <v>45481</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>12899.5</v>
+        <v>1964</v>
       </c>
       <c r="E3">
-        <v>1297.19</v>
+        <v>1386.59</v>
       </c>
       <c r="F3" s="6">
-        <v>45449</v>
+        <v>45481</v>
+      </c>
+      <c r="H3">
+        <f>SUM(C2:C3)</f>
+        <v>102</v>
+      </c>
+      <c r="I3" s="8">
+        <f>SUMPRODUCT(D2:D3,C2:C3)</f>
+        <v>200293</v>
+      </c>
+      <c r="J3" s="3">
+        <f>+I3/H3</f>
+        <v>1963.6568627450981</v>
+      </c>
+      <c r="K3" s="8">
+        <f>SUMPRODUCT(E2:E3,C2:C3)</f>
+        <v>141432.18</v>
+      </c>
+      <c r="L3" s="3">
+        <f>+K3/H3</f>
+        <v>1386.59</v>
+      </c>
+      <c r="M3" s="6">
+        <f>+F3</f>
+        <v>45481</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="D4">
-        <v>13655</v>
+        <v>1545</v>
       </c>
       <c r="E4">
-        <v>1264.17</v>
+        <v>1291.78</v>
       </c>
       <c r="F4" s="6">
-        <v>45461</v>
+        <v>45532</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="3"/>
@@ -3354,13 +3320,13 @@
         <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>14375</v>
+        <v>1585</v>
       </c>
       <c r="E5">
         <v>1271.5999999999999</v>
@@ -3374,13 +3340,13 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>13825</v>
+        <v>1560</v>
       </c>
       <c r="E6">
         <v>1245.78</v>
@@ -3398,43 +3364,43 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>14050</v>
+        <v>1630</v>
       </c>
       <c r="E7">
-        <v>1259.83</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="F7" s="6">
-        <v>45547</v>
+        <v>45558</v>
       </c>
       <c r="H7">
-        <f>SUM(C2:C7)</f>
-        <v>194</v>
+        <f>SUM(C5:C7)</f>
+        <v>140</v>
       </c>
       <c r="I7" s="8">
-        <f>SUMPRODUCT(D2:D7,C2:C7)</f>
-        <v>2624917.5</v>
+        <f>SUMPRODUCT(D5:D7,C5:C7)</f>
+        <v>221000</v>
       </c>
       <c r="J7" s="3">
         <f>+I7/H7</f>
-        <v>13530.502577319588</v>
+        <v>1578.5714285714287</v>
       </c>
       <c r="K7" s="8">
-        <f>SUMPRODUCT(E2:E7,C2:C7)</f>
-        <v>246277.46999999997</v>
+        <f>SUMPRODUCT(E5:E7,C5:C7)</f>
+        <v>175730.74</v>
       </c>
       <c r="L7" s="3">
         <f>+K7/H7</f>
-        <v>1269.4714948453607</v>
+        <v>1255.2195714285713</v>
       </c>
       <c r="M7" s="6">
         <f>+F7</f>
-        <v>45547</v>
+        <v>45558</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -3442,322 +3408,102 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="D8">
-        <v>12925</v>
+        <v>1560</v>
       </c>
       <c r="E8">
-        <v>1163.3900000000001</v>
+        <v>1194.6199999999999</v>
       </c>
       <c r="F8" s="6">
-        <v>45607</v>
+        <v>45583</v>
       </c>
       <c r="I8" s="7"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>12875</v>
-      </c>
-      <c r="E9">
-        <v>1155.92</v>
-      </c>
-      <c r="F9" s="6">
-        <v>45609</v>
-      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="3"/>
       <c r="K9" s="8"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>12825</v>
-      </c>
-      <c r="E10">
-        <v>1110.1099999999999</v>
-      </c>
-      <c r="F10" s="6">
-        <v>45621</v>
-      </c>
       <c r="I10" s="7"/>
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>38</v>
-      </c>
-      <c r="D11">
-        <v>13525</v>
-      </c>
-      <c r="E11">
-        <v>1122.06</v>
-      </c>
-      <c r="F11" s="6">
-        <v>45642</v>
-      </c>
       <c r="I11" s="7"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>22</v>
-      </c>
-      <c r="D12">
-        <v>14325</v>
-      </c>
-      <c r="E12">
-        <v>1186.04</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45660</v>
-      </c>
       <c r="I12" s="7"/>
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>36</v>
-      </c>
-      <c r="D13">
-        <v>13975</v>
-      </c>
-      <c r="E13">
-        <v>1191.05</v>
-      </c>
-      <c r="F13" s="6">
-        <v>45671</v>
-      </c>
-      <c r="H13">
-        <f>SUM(C8:C13)</f>
-        <v>154</v>
-      </c>
-      <c r="I13" s="8">
-        <f>SUMPRODUCT(D8:D13,C8:C13)</f>
-        <v>2077750</v>
-      </c>
-      <c r="J13" s="3">
-        <f>+I13/H13</f>
-        <v>13491.883116883117</v>
-      </c>
-      <c r="K13" s="8">
-        <f>SUMPRODUCT(E8:E13,C8:C13)</f>
-        <v>176977.77999999997</v>
-      </c>
-      <c r="L13" s="3">
-        <f>+K13/H13</f>
-        <v>1149.2063636363634</v>
-      </c>
-      <c r="M13" s="6">
-        <f>+F13</f>
-        <v>45671</v>
-      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>13300</v>
-      </c>
-      <c r="E14">
-        <v>1187</v>
-      </c>
-      <c r="F14" s="6">
-        <v>45680</v>
-      </c>
       <c r="I14" s="7"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>140</v>
-      </c>
-      <c r="D15">
-        <v>14075</v>
-      </c>
-      <c r="E15">
-        <v>1180.7</v>
-      </c>
-      <c r="F15" s="6">
-        <v>45687</v>
-      </c>
       <c r="I15" s="7"/>
       <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16">
-        <v>14000</v>
-      </c>
-      <c r="E16">
-        <v>1185.19</v>
-      </c>
-      <c r="F16" s="6">
-        <v>45700</v>
-      </c>
       <c r="I16" s="7"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>27</v>
-      </c>
-      <c r="D17">
-        <v>14700</v>
-      </c>
-      <c r="E17">
-        <v>1224.07</v>
-      </c>
-      <c r="F17" s="6">
-        <v>45715</v>
-      </c>
-      <c r="H17">
-        <f>SUM(C14:C17)</f>
-        <v>182</v>
-      </c>
-      <c r="I17" s="8">
-        <f>SUMPRODUCT(D14:D17,C14:C17)</f>
-        <v>2576700</v>
-      </c>
-      <c r="J17" s="3">
-        <f>+I17/H17</f>
-        <v>14157.692307692309</v>
-      </c>
-      <c r="K17" s="8">
-        <f>SUMPRODUCT(E14:E17,C14:C17)</f>
-        <v>216127.55</v>
-      </c>
-      <c r="L17" s="3">
-        <f>+K17/H17</f>
-        <v>1187.514010989011</v>
-      </c>
-      <c r="M17" s="6">
-        <f>+F17</f>
-        <v>45715</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>35</v>
-      </c>
-      <c r="D18">
-        <v>13925</v>
-      </c>
-      <c r="E18">
-        <v>1291.8599999999999</v>
-      </c>
-      <c r="F18" s="6">
-        <v>45735</v>
-      </c>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I17" s="8"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I18" s="7"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I19" s="7"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I20" s="7"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I21" s="7"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I22" s="7"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I23" s="7"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I24" s="7"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I25" s="7"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I26" s="7"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
       <c r="K27" s="6"/>
       <c r="M27"/>
     </row>
@@ -3793,76 +3539,76 @@
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H12 J10:J12 H27:M27 H6 J6 L6:M6 L8:M8 J8 H8 J14:J16 H14:H16 H18:H26 J18:J26">
-    <cfRule type="expression" dxfId="35" priority="138">
+  <conditionalFormatting sqref="H2:H3 J2:J3 L2:M3">
+    <cfRule type="expression" dxfId="35" priority="7">
+      <formula>$A1="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="8">
+      <formula>$A1="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 J4 L4:M4">
+    <cfRule type="expression" dxfId="33" priority="190">
+      <formula>$A3="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="191">
+      <formula>$A3="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 J6 L6:M6 H8 J8 L8:M8 H10:H12 J10:J12 H14:H16 J14:J16 H18:H26 J18:J26 H27:M27">
+    <cfRule type="expression" dxfId="31" priority="138">
       <formula>$A6="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="139">
+    <cfRule type="expression" dxfId="30" priority="139">
+      <formula>$A6="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 J7 L7:M7">
+    <cfRule type="expression" dxfId="29" priority="5">
+      <formula>$A6="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="6">
       <formula>$A6="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 J9 L9:M9">
-    <cfRule type="expression" dxfId="33" priority="180">
+    <cfRule type="expression" dxfId="27" priority="180">
       <formula>$A5="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="187">
+    <cfRule type="expression" dxfId="26" priority="187">
       <formula>$A5="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H13 J13 L13:M13">
+    <cfRule type="expression" dxfId="25" priority="3">
+      <formula>$A12="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="4">
+      <formula>$A12="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17 J17 L17:M17">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>$A16="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>$A16="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L10:M12 L14:M16 L18:M26">
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>$A10="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="20" priority="10">
       <formula>$A10="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="29" priority="144">
+    <cfRule type="expression" dxfId="19" priority="144">
       <formula>$A1="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="157">
+    <cfRule type="expression" dxfId="18" priority="157">
       <formula>$A1="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4 J4 L4:M4">
-    <cfRule type="expression" dxfId="9" priority="190">
-      <formula>$A3="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="191">
-      <formula>$A3="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2 J2 L2:M2">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>$A1="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$A1="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 J7 L7:M7">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$A6="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$A6="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13 L13:M13">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$A12="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$A12="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17 L17:M17">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$A16="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$A16="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5114,26 +4860,26 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A63">
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F63">
-    <cfRule type="expression" dxfId="24" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="155" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="156">
+    <cfRule type="expression" dxfId="13" priority="156">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="157">
+    <cfRule type="expression" dxfId="12" priority="157">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5146,10 +4892,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:F1"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6992,24 +6738,24 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A99">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F99">
-    <cfRule type="expression" dxfId="18" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="161" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="162">
+    <cfRule type="expression" dxfId="7" priority="162">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="163">
+    <cfRule type="expression" dxfId="6" priority="163">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7482,24 +7228,24 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A23">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F23">
-    <cfRule type="expression" dxfId="12" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="158" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="159">
+    <cfRule type="expression" dxfId="1" priority="159">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="160">
+    <cfRule type="expression" dxfId="0" priority="160">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7525,13 +7271,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -12531,7 +12277,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -14233,49 +13979,49 @@
         <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -14283,41 +14029,41 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -14325,55 +14071,55 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -14381,111 +14127,111 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -14493,195 +14239,195 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C30" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -14689,139 +14435,139 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D38" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D41" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D43" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -14829,251 +14575,251 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D44" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D45" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D47" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D50" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
         <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D60" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -15081,125 +14827,125 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C70" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -15207,153 +14953,153 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D73" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C74" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D75" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C76" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D76" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C78" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D78" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C79" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D79" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C80" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D80" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D81" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -15361,82 +15107,82 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D85" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D86" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C87" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D88" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -15444,21 +15190,21 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -15466,131 +15212,131 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C93" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C94" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C95" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D95" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D99" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C100" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D100" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C101" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D101" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C102" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D102" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
@@ -15598,54 +15344,54 @@
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D103" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D104" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C105" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D105" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C106" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D106" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C107" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D107" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -15653,229 +15399,229 @@
         <v>17</v>
       </c>
       <c r="C108" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D108" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C109" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D109" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C110" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D110" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D111" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C112" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D113" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C114" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D114" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D115" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D116" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C117" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D117" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C118" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D118" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D119" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D120" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D121" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C122" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D122" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D123" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C124" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D124" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D125" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D127" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D128" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D129" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
@@ -15883,303 +15629,303 @@
         <v>21</v>
       </c>
       <c r="D130" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D131" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D132" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D133" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D134" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D135" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D136" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D137" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D138" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D139" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D140" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D141" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D142" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D143" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D144" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D145" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D146" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D147" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D148" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D149" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D150" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D151" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D152" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D153" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D154" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D155" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D156" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D157" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D159" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D160" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D161" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D162" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D163" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D164" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D165" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D166" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D167" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.3">
@@ -16187,7 +15933,7 @@
         <v>29</v>
       </c>
       <c r="D168" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.3">
@@ -16195,79 +15941,79 @@
         <v>34</v>
       </c>
       <c r="D169" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D170" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D171" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D172" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D173" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D174" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D175" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D176" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D177" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D178" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.3">
@@ -16275,15 +16021,15 @@
         <v>33</v>
       </c>
       <c r="D179" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D180" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.3">
@@ -16291,127 +16037,127 @@
         <v>25</v>
       </c>
       <c r="D181" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D182" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D183" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D184" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D185" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D186" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D187" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D188" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B189" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D189" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B190" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D190" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B191" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="D191" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D192" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D193" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B194" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D194" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D195" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D196" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.3">
@@ -16419,159 +16165,159 @@
         <v>16</v>
       </c>
       <c r="D197" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B198" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D198" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B199" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D199" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B200" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D200" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B201" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D201" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B202" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D202" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B203" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D203" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B204" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D204" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B205" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D205" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B206" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D206" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D207" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D208" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D209" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D210" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D211" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D212" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D213" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D214" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D215" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D216" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.3">
@@ -16579,127 +16325,127 @@
         <v>8</v>
       </c>
       <c r="D217" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D218" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D219" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B220" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D220" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D221" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B222" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D222" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B223" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D223" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B224" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D224" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B225" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D225" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B226" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D226" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B227" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D227" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B228" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D228" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B229" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D229" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B230" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D230" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B231" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D231" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B232" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D232" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.3">
@@ -16707,159 +16453,159 @@
         <v>9</v>
       </c>
       <c r="D233" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B234" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D234" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D235" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D236" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D237" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D238" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D239" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B240" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D240" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B241" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D241" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B242" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D242" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B243" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D243" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B244" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D244" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D245" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D246" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B247" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D247" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B248" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D248" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B249" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D249" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B250" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D250" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B251" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D251" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B252" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D252" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.3">
@@ -16867,87 +16613,87 @@
         <v>37</v>
       </c>
       <c r="D253" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D254" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D255" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D256" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D257" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D258" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D259" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D260" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B261" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D261" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B262" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D262" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B263" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D263" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.3">
@@ -16955,71 +16701,71 @@
         <v>27</v>
       </c>
       <c r="D264" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B265" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D265" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B266" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="D266" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B267" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D267" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B268" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D268" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B269" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D269" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B270" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D270" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B271" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D271" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B272" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D272" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.3">
@@ -17027,7 +16773,7 @@
         <v>26</v>
       </c>
       <c r="D273" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.3">
@@ -17035,207 +16781,207 @@
         <v>31</v>
       </c>
       <c r="D274" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D275" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D276" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B277" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D277" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B278" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D278" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B279" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D279" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B280" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D280" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B281" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D281" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B282" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D282" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B283" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D283" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B284" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D284" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B285" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D285" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B286" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="D286" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D287" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D288" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B289" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D289" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B290" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D290" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="D291" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D292" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B293" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D293" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B294" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D294" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B295" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D295" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B296" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D296" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B297" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D297" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B298" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D298" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B299" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D299" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.3">
@@ -17243,112 +16989,112 @@
         <v>19</v>
       </c>
       <c r="D300" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B301" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D301" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B302" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D302" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B303" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D303" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D304" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D305" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B307" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B308" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B309" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B310" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B311" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B312" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B313" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B314" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B315" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B316" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B317" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B318" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/excel/ordenes.xlsx
+++ b/excel/ordenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bolsa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E8D409-48A4-41B0-A766-D14F8D035409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC3A97-BD06-4426-84BF-551B8D25240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ameo" sheetId="10" r:id="rId1"/>
@@ -2642,7 +2642,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="40">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -2731,16 +2731,6 @@
     <dxf>
       <font>
         <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEE0000"/>
       </font>
     </dxf>
     <dxf>
@@ -3190,8 +3180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC8571-EDD7-4FFF-A3DB-3F7929CF1B76}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3514,45 +3504,37 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A26">
-    <cfRule type="cellIs" dxfId="41" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="61" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="39" priority="59">
+    <cfRule type="expression" dxfId="37" priority="59">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="expression" dxfId="38" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F26 M28:M1048576">
-    <cfRule type="expression" dxfId="37" priority="63">
+    <cfRule type="expression" dxfId="35" priority="63">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="64">
+    <cfRule type="expression" dxfId="34" priority="64">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3 J2:J3 L2:M3">
-    <cfRule type="expression" dxfId="35" priority="7">
+  <conditionalFormatting sqref="H2:H4 J2:J4 L2:M4">
+    <cfRule type="expression" dxfId="33" priority="7">
       <formula>$A1="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="32" priority="8">
       <formula>$A1="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4 J4 L4:M4">
-    <cfRule type="expression" dxfId="33" priority="190">
-      <formula>$A3="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="191">
-      <formula>$A3="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6 J6 L6:M6 H8 J8 L8:M8 H10:H12 J10:J12 H14:H16 J14:J16 H18:H26 J18:J26 H27:M27">
@@ -4892,10 +4874,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:F1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:F45"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4926,7 +4908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -5166,7 +5148,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5186,7 +5168,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5226,7 +5208,7 @@
         <v>45481</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -5346,7 +5328,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -5366,7 +5348,7 @@
         <v>45532</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -5466,7 +5448,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -5646,7 +5628,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -5786,7 +5768,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -6466,7 +6448,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -6730,7 +6712,7 @@
   <autoFilter ref="A1:F91" xr:uid="{EF4348A8-0232-487C-8AD8-BF838F7FB727}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AMZN"/>
+        <filter val="AXP"/>
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">

--- a/excel/ordenes.xlsx
+++ b/excel/ordenes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bolsa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBC3A97-BD06-4426-84BF-551B8D25240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5958995-BC3B-48A5-A484-9196B0F9D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ameo" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Acción!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Ameo!$A$1:$F$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Bonos!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Bonos!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CCL!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cedear!$A$1:$F$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Datos!$A$1:$G$1</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="841">
   <si>
     <t>Operacion</t>
   </si>
@@ -2642,7 +2642,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -2731,6 +2731,16 @@
     <dxf>
       <font>
         <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
       </font>
     </dxf>
     <dxf>
@@ -3180,16 +3190,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFC8571-EDD7-4FFF-A3DB-3F7929CF1B76}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="13.19921875" customWidth="1"/>
     <col min="6" max="6" width="13.19921875" style="6" customWidth="1"/>
-    <col min="7" max="12" width="13.19921875" customWidth="1"/>
-    <col min="13" max="13" width="13.19921875" style="6" customWidth="1"/>
+    <col min="7" max="11" width="13.19921875" customWidth="1"/>
+    <col min="12" max="12" width="13.19921875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -3211,291 +3221,154 @@
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1946.5</v>
-      </c>
-      <c r="E2">
-        <v>1386.59</v>
-      </c>
-      <c r="F2" s="6">
-        <v>45481</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="3"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>1964</v>
-      </c>
-      <c r="E3">
-        <v>1386.59</v>
-      </c>
-      <c r="F3" s="6">
-        <v>45481</v>
-      </c>
       <c r="H3">
-        <f>SUM(C2:C3)</f>
-        <v>102</v>
+        <f>SUM(C3:C17)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f>SUMPRODUCT(D2:D3,C2:C3)</f>
-        <v>200293</v>
-      </c>
-      <c r="J3" s="3">
+        <f>SUMPRODUCT(D3:D17,C3:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="e">
         <f>+I3/H3</f>
-        <v>1963.6568627450981</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K3" s="8">
-        <f>SUMPRODUCT(E2:E3,C2:C3)</f>
-        <v>141432.18</v>
-      </c>
-      <c r="L3" s="3">
+        <f>SUMPRODUCT(E3:E17,C3:C17)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="e">
         <f>+K3/H3</f>
-        <v>1386.59</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M3" s="6">
-        <f>+F3</f>
-        <v>45481</v>
+        <f>+F17</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>102</v>
-      </c>
-      <c r="D4">
-        <v>1545</v>
-      </c>
-      <c r="E4">
-        <v>1291.78</v>
-      </c>
-      <c r="F4" s="6">
-        <v>45532</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="3"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>62</v>
-      </c>
-      <c r="D5">
-        <v>1585</v>
-      </c>
-      <c r="E5">
-        <v>1271.5999999999999</v>
-      </c>
-      <c r="F5" s="6">
-        <v>45540</v>
-      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6">
-        <v>63</v>
-      </c>
-      <c r="D6">
-        <v>1560</v>
-      </c>
-      <c r="E6">
-        <v>1245.78</v>
-      </c>
-      <c r="F6" s="6">
-        <v>45546</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="3"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1630</v>
-      </c>
-      <c r="E7">
-        <v>1227.1600000000001</v>
-      </c>
-      <c r="F7" s="6">
-        <v>45558</v>
-      </c>
-      <c r="H7">
-        <f>SUM(C5:C7)</f>
-        <v>140</v>
-      </c>
-      <c r="I7" s="8">
-        <f>SUMPRODUCT(D5:D7,C5:C7)</f>
-        <v>221000</v>
-      </c>
-      <c r="J7" s="3">
-        <f>+I7/H7</f>
-        <v>1578.5714285714287</v>
-      </c>
-      <c r="K7" s="8">
-        <f>SUMPRODUCT(E5:E7,C5:C7)</f>
-        <v>175730.74</v>
-      </c>
-      <c r="L7" s="3">
-        <f>+K7/H7</f>
-        <v>1255.2195714285713</v>
-      </c>
-      <c r="M7" s="6">
-        <f>+F7</f>
-        <v>45558</v>
-      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>140</v>
-      </c>
-      <c r="D8">
-        <v>1560</v>
-      </c>
-      <c r="E8">
-        <v>1194.6199999999999</v>
-      </c>
-      <c r="F8" s="6">
-        <v>45583</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="K8" s="9"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I9" s="8"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I10" s="7"/>
-      <c r="K10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I11" s="7"/>
-      <c r="K11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="7"/>
-      <c r="K12" s="9"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I13" s="8"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="3"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I14" s="7"/>
-      <c r="K14" s="9"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I15" s="7"/>
-      <c r="K15" s="9"/>
+      <c r="H15" s="7"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I16" s="7"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I17" s="8"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="H16" s="7"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I18" s="7"/>
       <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="L18"/>
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I19" s="7"/>
       <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="L19"/>
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.3">
       <c r="I20" s="7"/>
       <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I21" s="7"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I22" s="7"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I23" s="7"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I24" s="7"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I25" s="7"/>
-      <c r="K25" s="9"/>
-    </row>
-    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I26" s="7"/>
-      <c r="K26" s="9"/>
-    </row>
-    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="K27" s="6"/>
-      <c r="M27"/>
+      <c r="L20"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="I21" s="8"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H22" s="7"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H23" s="7"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H24" s="7"/>
+      <c r="J24" s="9"/>
+    </row>
+    <row r="25" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H25" s="7"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H26" s="7"/>
+      <c r="J26" s="9"/>
+    </row>
+    <row r="27" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="J27" s="6"/>
+      <c r="L27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F18" xr:uid="{1AFC8571-EDD7-4FFF-A3DB-3F7929CF1B76}">
@@ -3504,92 +3377,100 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A26">
-    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="66" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="37" priority="59">
+    <cfRule type="expression" dxfId="39" priority="65">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="expression" dxfId="36" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="68" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F26 M28:M1048576">
-    <cfRule type="expression" dxfId="35" priority="63">
+  <conditionalFormatting sqref="B2:F26 H27:L27 L28:L1048576">
+    <cfRule type="expression" dxfId="37" priority="69">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="64">
+    <cfRule type="expression" dxfId="36" priority="70">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4 J2:J4 L2:M4">
-    <cfRule type="expression" dxfId="33" priority="7">
+  <conditionalFormatting sqref="I2:I7 K2:L7">
+    <cfRule type="expression" dxfId="35" priority="11">
       <formula>$A1="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="34" priority="12">
       <formula>$A1="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6 J6 L6:M6 H8 J8 L8:M8 H10:H12 J10:J12 H14:H16 J14:J16 H18:H26 J18:J26 H27:M27">
-    <cfRule type="expression" dxfId="31" priority="138">
-      <formula>$A6="Venta"</formula>
+  <conditionalFormatting sqref="I8 K8:L8 I10 I12 I14:I16 H18:H20 J18:J20 I22:I26">
+    <cfRule type="expression" dxfId="33" priority="144">
+      <formula>$A8="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="139">
-      <formula>$A6="Compra"</formula>
+    <cfRule type="expression" dxfId="32" priority="145">
+      <formula>$A8="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7 J7 L7:M7">
-    <cfRule type="expression" dxfId="29" priority="5">
-      <formula>$A6="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6">
-      <formula>$A6="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9 J9 L9:M9">
-    <cfRule type="expression" dxfId="27" priority="180">
+  <conditionalFormatting sqref="I9 K9:L9">
+    <cfRule type="expression" dxfId="31" priority="186">
       <formula>$A5="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="187">
+    <cfRule type="expression" dxfId="30" priority="193">
       <formula>$A5="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13 J13 L13:M13">
-    <cfRule type="expression" dxfId="25" priority="3">
+  <conditionalFormatting sqref="I11 K11:L11">
+    <cfRule type="expression" dxfId="29" priority="5">
+      <formula>$A10="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="6">
+      <formula>$A10="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13 K13:L13">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>$A12="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
+    <cfRule type="expression" dxfId="26" priority="10">
       <formula>$A12="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17 J17 L17:M17">
-    <cfRule type="expression" dxfId="23" priority="1">
+  <conditionalFormatting sqref="H3 J3 L3:M3">
+    <cfRule type="expression" dxfId="25" priority="3">
       <formula>$A16="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
+    <cfRule type="expression" dxfId="24" priority="4">
       <formula>$A16="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10:M12 L14:M16 L18:M26">
-    <cfRule type="expression" dxfId="21" priority="9">
+  <conditionalFormatting sqref="H21 J21 L21:M21">
+    <cfRule type="expression" dxfId="23" priority="1">
+      <formula>$A20="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="2">
+      <formula>$A20="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:L10 K12:L12 K14:L16 L18:M20 K22:L26">
+    <cfRule type="expression" dxfId="21" priority="15">
       <formula>$A10="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10">
+    <cfRule type="expression" dxfId="20" priority="16">
       <formula>$A10="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1">
-    <cfRule type="expression" dxfId="19" priority="144">
+  <conditionalFormatting sqref="L1">
+    <cfRule type="expression" dxfId="19" priority="150">
       <formula>$A1="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="157">
+    <cfRule type="expression" dxfId="18" priority="163">
       <formula>$A1="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4874,10 +4755,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:F1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4908,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -5148,7 +5029,7 @@
         <v>45470</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6068,7 +5949,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -6368,7 +6249,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
@@ -6448,7 +6329,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>38</v>
       </c>
@@ -6508,7 +6389,7 @@
         <v>45688</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>38</v>
       </c>
@@ -6712,12 +6593,9 @@
   <autoFilter ref="A1:F91" xr:uid="{EF4348A8-0232-487C-8AD8-BF838F7FB727}">
     <filterColumn colId="1">
       <filters>
-        <filter val="AXP"/>
+        <filter val="WMT"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F91">
-      <sortCondition ref="F1"/>
-    </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A99">
     <cfRule type="expression" dxfId="11" priority="11">
@@ -6747,12 +6625,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9664D2-4F53-451E-883D-D7866EFE33DB}">
-  <dimension ref="A1:F22"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6783,7 +6662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -6794,7 +6673,7 @@
         <v>11026</v>
       </c>
       <c r="D2">
-        <v>0.54459999999999997</v>
+        <v>650.59</v>
       </c>
       <c r="E2">
         <v>1194.6199999999999</v>
@@ -6803,7 +6682,7 @@
         <v>45583</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -6823,7 +6702,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -6843,7 +6722,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -6863,7 +6742,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -6883,7 +6762,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -6903,7 +6782,7 @@
         <v>45604</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -6923,7 +6802,7 @@
         <v>45607</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -6943,7 +6822,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -6963,7 +6842,7 @@
         <v>45609</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -6983,7 +6862,7 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -7003,7 +6882,7 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -7023,7 +6902,7 @@
         <v>45628</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7043,7 +6922,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -7063,7 +6942,7 @@
         <v>45642</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7083,7 +6962,7 @@
         <v>45660</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -7123,7 +7002,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -7143,7 +7022,7 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -7163,7 +7042,7 @@
         <v>45693</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -7183,7 +7062,7 @@
         <v>45707</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -7203,8 +7082,33 @@
         <v>45728</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>1434</v>
+      </c>
+      <c r="D23">
+        <v>766.6</v>
+      </c>
+      <c r="E23">
+        <v>1317.35</v>
+      </c>
+      <c r="F23" s="6">
+        <v>45747</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{3A9664D2-4F53-451E-883D-D7866EFE33DB}">
+  <autoFilter ref="A1:F22" xr:uid="{3A9664D2-4F53-451E-883D-D7866EFE33DB}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="GD41"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
       <sortCondition ref="F1"/>
     </sortState>
@@ -7242,7 +7146,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12245,8 +12149,8 @@
   <dimension ref="A1:B209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/excel/ordenes.xlsx
+++ b/excel/ordenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bolsa\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5958995-BC3B-48A5-A484-9196B0F9D167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0B16C4-DAA2-4C28-AB07-11B4485E10F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Bonos!$A$1:$F$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">CCL!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Cedear!$A$1:$F$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Datos!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Datos!$A$1:$G$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Tickers!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="841">
   <si>
     <t>Operacion</t>
   </si>
@@ -2616,7 +2616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2638,11 +2638,332 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -2755,6 +3076,11 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFEE0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF00B050"/>
       </font>
     </dxf>
@@ -2796,11 +3122,6 @@
     <dxf>
       <font>
         <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFEE0000"/>
       </font>
     </dxf>
     <dxf>
@@ -3191,7 +3512,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3224,96 +3545,343 @@
       <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11">
+        <v>6492.8</v>
+      </c>
+      <c r="E2">
+        <v>1304.57</v>
+      </c>
+      <c r="F2" s="6">
+        <v>45448</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="3"/>
       <c r="J2" s="8"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11">
+        <v>6639.95</v>
+      </c>
+      <c r="E3">
+        <v>1297.19</v>
+      </c>
+      <c r="F3" s="6">
+        <v>45449</v>
+      </c>
       <c r="H3">
-        <f>SUM(C3:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <f>SUMPRODUCT(D3:D17,C3:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="e">
+        <f>SUM(C2:C3)</f>
+        <v>60</v>
+      </c>
+      <c r="I3" s="7">
+        <f>SUMPRODUCT(D2:D3,C2:C3)</f>
+        <v>393982.5</v>
+      </c>
+      <c r="J3" s="3">
         <f>+I3/H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="8">
-        <f>SUMPRODUCT(E3:E17,C3:C17)</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="e">
+        <v>6566.375</v>
+      </c>
+      <c r="K3" s="7">
+        <f>SUMPRODUCT(E2:E3,C2:C3)</f>
+        <v>78052.800000000003</v>
+      </c>
+      <c r="L3" s="3">
         <f>+K3/H3</f>
-        <v>#DIV/0!</v>
+        <v>1300.8800000000001</v>
       </c>
       <c r="M3" s="6">
-        <f>+F17</f>
-        <v>0</v>
+        <f>+F3</f>
+        <v>45449</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>6760</v>
+      </c>
+      <c r="E4">
+        <v>1291.78</v>
+      </c>
+      <c r="F4" s="6">
+        <v>45532</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="3"/>
       <c r="J4" s="8"/>
       <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>83</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5890</v>
+      </c>
+      <c r="E5">
+        <v>1245.78</v>
+      </c>
+      <c r="F5" s="6">
+        <v>45546</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="3"/>
       <c r="J5" s="8"/>
       <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H6" s="8"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="3"/>
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6290</v>
+      </c>
+      <c r="E6">
+        <v>1259.83</v>
+      </c>
+      <c r="F6" s="6">
+        <v>45547</v>
+      </c>
+      <c r="H6">
+        <f>SUM(C5:C6)</f>
+        <v>122</v>
+      </c>
+      <c r="I6" s="7">
+        <f>SUMPRODUCT(D5:D6,C5:C6)</f>
+        <v>734180</v>
+      </c>
+      <c r="J6" s="3">
+        <f>+I6/H6</f>
+        <v>6017.8688524590161</v>
+      </c>
+      <c r="K6" s="7">
+        <f>SUMPRODUCT(E5:E6,C5:C6)</f>
+        <v>152533.10999999999</v>
+      </c>
+      <c r="L6" s="3">
+        <f>+K6/H6</f>
+        <v>1250.2713934426229</v>
+      </c>
+      <c r="M6" s="6">
+        <f>+F6</f>
+        <v>45547</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H7" s="8"/>
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6010</v>
+      </c>
+      <c r="E7">
+        <v>1233.1099999999999</v>
+      </c>
+      <c r="F7" s="6">
+        <v>45553</v>
+      </c>
+      <c r="H7">
+        <v>102</v>
+      </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="8"/>
+      <c r="J7">
+        <v>6010</v>
+      </c>
       <c r="K7" s="3"/>
+      <c r="L7">
+        <v>1233.1099999999999</v>
+      </c>
+      <c r="M7" s="6">
+        <v>45553</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>6350</v>
+      </c>
+      <c r="E8">
+        <v>1225.94</v>
+      </c>
+      <c r="F8" s="6">
+        <v>45569</v>
+      </c>
       <c r="H8" s="7"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="11">
+        <v>7110</v>
+      </c>
+      <c r="E9">
+        <v>1158.29</v>
+      </c>
+      <c r="F9" s="6">
+        <v>45604</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="3"/>
       <c r="J9" s="8"/>
       <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6640</v>
+      </c>
+      <c r="E10">
+        <v>1166.99</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45649</v>
+      </c>
       <c r="H10" s="7"/>
-      <c r="J10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H11" s="8"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="3"/>
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6460</v>
+      </c>
+      <c r="E11">
+        <v>1203.17</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45695</v>
+      </c>
+      <c r="H11">
+        <f>SUM(C8:C11)</f>
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <f>SUMPRODUCT(D8:D11,C8:C11)</f>
+        <v>188890</v>
+      </c>
+      <c r="J11" s="3">
+        <f>+I11/H11</f>
+        <v>6513.4482758620688</v>
+      </c>
+      <c r="K11" s="7">
+        <f>SUMPRODUCT(E8:E11,C8:C11)</f>
+        <v>34752.58</v>
+      </c>
+      <c r="L11" s="3">
+        <f>+K11/H11</f>
+        <v>1198.364827586207</v>
+      </c>
+      <c r="M11" s="6">
+        <f>+F11</f>
+        <v>45695</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H12" s="7"/>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <f>SUM(C2:C3,C5:C6,C8:C11)</f>
+        <v>211</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="3"/>
       <c r="J13" s="8"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f>+C4+C7</f>
+        <v>132</v>
+      </c>
       <c r="H14" s="7"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <f>+C13-C14</f>
+        <v>79</v>
+      </c>
       <c r="H15" s="7"/>
       <c r="J15" s="9"/>
     </row>
@@ -3377,101 +3945,225 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A26">
-    <cfRule type="cellIs" dxfId="41" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="100" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="104" priority="101" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A5">
-    <cfRule type="expression" dxfId="39" priority="65">
+    <cfRule type="expression" dxfId="103" priority="99">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B26">
-    <cfRule type="expression" dxfId="38" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="102" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F26 H27:L27 L28:L1048576">
-    <cfRule type="expression" dxfId="37" priority="69">
+    <cfRule type="expression" dxfId="101" priority="103">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="70">
+    <cfRule type="expression" dxfId="100" priority="104">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7 K2:L7">
-    <cfRule type="expression" dxfId="35" priority="11">
-      <formula>$A1="Venta"</formula>
+  <conditionalFormatting sqref="L3">
+    <cfRule type="expression" dxfId="99" priority="37">
+      <formula>$A16="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="12">
+    <cfRule type="expression" dxfId="98" priority="38">
+      <formula>$A16="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21 J21 L21:M21">
+    <cfRule type="expression" dxfId="97" priority="35">
+      <formula>$A20="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="36">
+      <formula>$A20="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2 K2:L2 I4:I5 K4:L5 L3 K7 I7 L6">
+    <cfRule type="expression" dxfId="95" priority="46">
       <formula>$A1="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8 K8:L8 I10 I12 I14:I16 H18:H20 J18:J20 I22:I26">
-    <cfRule type="expression" dxfId="33" priority="144">
+    <cfRule type="expression" dxfId="94" priority="178">
       <formula>$A8="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="145">
+    <cfRule type="expression" dxfId="93" priority="179">
       <formula>$A8="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9 K9:L9">
-    <cfRule type="expression" dxfId="31" priority="186">
+    <cfRule type="expression" dxfId="92" priority="220">
       <formula>$A5="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="193">
+    <cfRule type="expression" dxfId="91" priority="227">
       <formula>$A5="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11 K11:L11">
-    <cfRule type="expression" dxfId="29" priority="5">
-      <formula>$A10="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="6">
-      <formula>$A10="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I13 K13:L13">
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="88" priority="43">
       <formula>$A12="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
+    <cfRule type="expression" dxfId="87" priority="44">
       <formula>$A12="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3 J3 L3:M3">
-    <cfRule type="expression" dxfId="25" priority="3">
-      <formula>$A16="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4">
-      <formula>$A16="Compra"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 J21 L21:M21">
-    <cfRule type="expression" dxfId="23" priority="1">
-      <formula>$A20="Venta"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2">
-      <formula>$A20="Compra"</formula>
+  <conditionalFormatting sqref="K2:L2 I2 I4:I5 K4:L5 L3 K7 I7 L6">
+    <cfRule type="expression" dxfId="86" priority="45">
+      <formula>$A1="Venta"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:L10 K12:L12 K14:L16 L18:M20 K22:L26">
-    <cfRule type="expression" dxfId="21" priority="15">
+    <cfRule type="expression" dxfId="85" priority="49">
       <formula>$A10="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16">
+    <cfRule type="expression" dxfId="84" priority="50">
       <formula>$A10="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="expression" dxfId="19" priority="150">
+    <cfRule type="expression" dxfId="83" priority="184">
       <formula>$A1="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="163">
+    <cfRule type="expression" dxfId="82" priority="197">
       <formula>$A1="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="expression" dxfId="63" priority="33">
+      <formula>$A3="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="34">
+      <formula>$A3="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="expression" dxfId="59" priority="29">
+      <formula>$A3="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="30">
+      <formula>$A3="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>$A3="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="28">
+      <formula>$A3="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6">
+    <cfRule type="expression" dxfId="25" priority="25">
+      <formula>$A19="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$A19="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>$A6="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>$A6="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="expression" dxfId="21" priority="21">
+      <formula>$A6="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="22">
+      <formula>$A6="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>$A6="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="20">
+      <formula>$A6="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="expression" dxfId="17" priority="15">
+      <formula>$A24="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$A24="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>$A10="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11">
+    <cfRule type="expression" dxfId="14" priority="17">
+      <formula>$A10="Venta"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>$A11="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="14">
+      <formula>$A11="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>$A11="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>$A11="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>$A11="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>$A11="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$A7="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$A7="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$A7="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$A7="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$A7="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A7="Compra"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$A7="Venta"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$A7="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4723,26 +5415,26 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="81" priority="4">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A63">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="8" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F63">
-    <cfRule type="expression" dxfId="14" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="155" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="156">
+    <cfRule type="expression" dxfId="77" priority="156">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="157">
+    <cfRule type="expression" dxfId="76" priority="157">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4758,7 +5450,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:F1"/>
-      <selection pane="bottomLeft" activeCell="A60" sqref="A60:F82"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4829,7 +5521,7 @@
         <v>45448</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -4909,7 +5601,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5149,7 +5841,7 @@
         <v>45512</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5369,7 +6061,7 @@
         <v>45546</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -5449,7 +6141,7 @@
         <v>45547</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -5489,7 +6181,7 @@
         <v>45547</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5609,7 +6301,7 @@
         <v>45568</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -5709,7 +6401,7 @@
         <v>45588</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -6069,7 +6761,7 @@
         <v>45642</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
@@ -6449,7 +7141,7 @@
         <v>45692</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>38</v>
       </c>
@@ -6593,29 +7285,30 @@
   <autoFilter ref="A1:F91" xr:uid="{EF4348A8-0232-487C-8AD8-BF838F7FB727}">
     <filterColumn colId="1">
       <filters>
+        <filter val="NVDA"/>
         <filter val="WMT"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="A2:A99">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="75" priority="11">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="73" priority="13" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F99">
-    <cfRule type="expression" dxfId="8" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="161" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="162">
+    <cfRule type="expression" dxfId="71" priority="162">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="163">
+    <cfRule type="expression" dxfId="70" priority="163">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7114,24 +7807,24 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A2:A23">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="69" priority="4">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
       <formula>"Venta"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Compra">
+    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="Compra">
       <formula>NOT(ISERROR(SEARCH("Compra",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:F23">
-    <cfRule type="expression" dxfId="2" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="158" stopIfTrue="1">
       <formula>#REF!="Cancelada"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="159">
+    <cfRule type="expression" dxfId="65" priority="159">
       <formula>$A2="Venta"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="160">
+    <cfRule type="expression" dxfId="64" priority="160">
       <formula>$A2="Compra"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7141,12 +7834,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E937F5EB-818B-419B-8D9B-586B9B504655}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:A1048576"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F126" sqref="F126:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7178,12 +7872,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="str">
         <f>IF(ISNUMBER(MATCH(B2,Tickers!A:A,0)),"Acción",
@@ -7191,13 +7885,13 @@
   IF(ISNUMBER(MATCH(B2,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B2,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>7450</v>
+        <v>13925</v>
       </c>
       <c r="F2">
         <f>VLOOKUP(G2,CCL!A:B,2,FALSE)</f>
@@ -7207,9 +7901,9 @@
         <v>45735</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -7223,25 +7917,25 @@
         <v>Cedear</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>13925</v>
+        <v>14700</v>
       </c>
       <c r="F3">
         <f>VLOOKUP(G3,CCL!A:B,2,FALSE)</f>
-        <v>1291.8599999999999</v>
+        <v>1224.07</v>
       </c>
       <c r="G3" s="6">
-        <v>45735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="str">
         <f>IF(ISNUMBER(MATCH(B4,Tickers!A:A,0)),"Acción",
@@ -7249,23 +7943,23 @@
   IF(ISNUMBER(MATCH(B4,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B4,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Cedear</v>
       </c>
       <c r="D4">
-        <v>1328</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>813.9</v>
+        <v>14000</v>
       </c>
       <c r="F4">
         <f>VLOOKUP(G4,CCL!A:B,2,FALSE)</f>
-        <v>1229.6300000000001</v>
+        <v>1185.19</v>
       </c>
       <c r="G4" s="6">
-        <v>45728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -7281,25 +7975,25 @@
         <v>Cedear</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="E5">
-        <v>14700</v>
+        <v>14075</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(G5,CCL!A:B,2,FALSE)</f>
-        <v>1224.07</v>
+        <v>1180.7</v>
       </c>
       <c r="G5" s="6">
-        <v>45715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="str">
         <f>IF(ISNUMBER(MATCH(B6,Tickers!A:A,0)),"Acción",
@@ -7310,25 +8004,25 @@
         <v>Cedear</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>37675</v>
+        <v>13300</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(G6,CCL!A:B,2,FALSE)</f>
-        <v>1213.1600000000001</v>
+        <v>1187</v>
       </c>
       <c r="G6" s="6">
-        <v>45712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
         <f>IF(ISNUMBER(MATCH(B7,Tickers!A:A,0)),"Acción",
@@ -7336,28 +8030,28 @@
   IF(ISNUMBER(MATCH(B7,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B7,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Cedear</v>
       </c>
       <c r="D7">
-        <v>501</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>787.7</v>
+        <v>13975</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(G7,CCL!A:B,2,FALSE)</f>
-        <v>1207.55</v>
+        <v>1191.05</v>
       </c>
       <c r="G7" s="6">
-        <v>45707</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="str">
         <f>IF(ISNUMBER(MATCH(B8,Tickers!A:A,0)),"Acción",
@@ -7368,22 +8062,22 @@
         <v>Cedear</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>58000</v>
+        <v>14325</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(G8,CCL!A:B,2,FALSE)</f>
-        <v>1197.21</v>
+        <v>1186.04</v>
       </c>
       <c r="G8" s="6">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -7397,25 +8091,25 @@
         <v>Cedear</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>14000</v>
+        <v>13525</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(G9,CCL!A:B,2,FALSE)</f>
-        <v>1185.19</v>
+        <v>1122.06</v>
       </c>
       <c r="G9" s="6">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" t="str">
         <f>IF(ISNUMBER(MATCH(B10,Tickers!A:A,0)),"Acción",
@@ -7426,25 +8120,25 @@
         <v>Cedear</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>46000</v>
+        <v>12825</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(G10,CCL!A:B,2,FALSE)</f>
-        <v>1185.19</v>
+        <v>1110.1099999999999</v>
       </c>
       <c r="G10" s="6">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C11" t="str">
         <f>IF(ISNUMBER(MATCH(B11,Tickers!A:A,0)),"Acción",
@@ -7452,28 +8146,28 @@
   IF(ISNUMBER(MATCH(B11,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B11,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>6090</v>
+        <v>12875</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(G11,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1155.92</v>
       </c>
       <c r="G11" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" t="str">
         <f>IF(ISNUMBER(MATCH(B12,Tickers!A:A,0)),"Acción",
@@ -7481,28 +8175,28 @@
   IF(ISNUMBER(MATCH(B12,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B12,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D12">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E12">
-        <v>3680</v>
+        <v>12925</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(G12,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1163.3900000000001</v>
       </c>
       <c r="G12" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" t="str">
         <f>IF(ISNUMBER(MATCH(B13,Tickers!A:A,0)),"Acción",
@@ -7510,28 +8204,28 @@
   IF(ISNUMBER(MATCH(B13,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B13,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D13">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>2145</v>
+        <v>14050</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(G13,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1259.83</v>
       </c>
       <c r="G13" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="str">
         <f>IF(ISNUMBER(MATCH(B14,Tickers!A:A,0)),"Acción",
@@ -7539,28 +8233,28 @@
   IF(ISNUMBER(MATCH(B14,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B14,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E14">
-        <v>7210</v>
+        <v>13825</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(G14,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1245.78</v>
       </c>
       <c r="G14" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" t="str">
         <f>IF(ISNUMBER(MATCH(B15,Tickers!A:A,0)),"Acción",
@@ -7568,28 +8262,28 @@
   IF(ISNUMBER(MATCH(B15,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B15,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D15">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>1555</v>
+        <v>14375</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(G15,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G15" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="str">
         <f>IF(ISNUMBER(MATCH(B16,Tickers!A:A,0)),"Acción",
@@ -7597,28 +8291,28 @@
   IF(ISNUMBER(MATCH(B16,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B16,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E16">
-        <v>11000</v>
+        <v>13655</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(G16,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1264.17</v>
       </c>
       <c r="G16" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C17" t="str">
         <f>IF(ISNUMBER(MATCH(B17,Tickers!A:A,0)),"Acción",
@@ -7626,28 +8320,28 @@
   IF(ISNUMBER(MATCH(B17,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B17,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>7900</v>
+        <v>12899.5</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(G17,CCL!A:B,2,FALSE)</f>
-        <v>1189.68</v>
+        <v>1297.19</v>
       </c>
       <c r="G17" s="6">
-        <v>45699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C18" t="str">
         <f>IF(ISNUMBER(MATCH(B18,Tickers!A:A,0)),"Acción",
@@ -7658,25 +8352,25 @@
         <v>Cedear</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>6460</v>
+        <v>12768</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(G18,CCL!A:B,2,FALSE)</f>
-        <v>1203.17</v>
+        <v>1304.57</v>
       </c>
       <c r="G18" s="6">
-        <v>45695</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C19" t="str">
         <f>IF(ISNUMBER(MATCH(B19,Tickers!A:A,0)),"Acción",
@@ -7684,28 +8378,28 @@
   IF(ISNUMBER(MATCH(B19,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B19,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Cedear</v>
       </c>
       <c r="D19">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="E19">
-        <v>814.5</v>
+        <v>1560</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(G19,CCL!A:B,2,FALSE)</f>
-        <v>1200.48</v>
+        <v>1194.6199999999999</v>
       </c>
       <c r="G19" s="6">
-        <v>45693</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C20" t="str">
         <f>IF(ISNUMBER(MATCH(B20,Tickers!A:A,0)),"Acción",
@@ -7716,25 +8410,25 @@
         <v>Cedear</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>6270</v>
+        <v>1630</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(G20,CCL!A:B,2,FALSE)</f>
-        <v>1199.7</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="G20" s="6">
-        <v>45692</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C21" t="str">
         <f>IF(ISNUMBER(MATCH(B21,Tickers!A:A,0)),"Acción",
@@ -7745,25 +8439,25 @@
         <v>Cedear</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E21">
-        <v>41925</v>
+        <v>1560</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(G21,CCL!A:B,2,FALSE)</f>
-        <v>1199.7</v>
+        <v>1245.78</v>
       </c>
       <c r="G21" s="6">
-        <v>45692</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C22" t="str">
         <f>IF(ISNUMBER(MATCH(B22,Tickers!A:A,0)),"Acción",
@@ -7774,25 +8468,25 @@
         <v>Cedear</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E22">
-        <v>6160</v>
+        <v>1585</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(G22,CCL!A:B,2,FALSE)</f>
-        <v>1185.97</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G22" s="6">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C23" t="str">
         <f>IF(ISNUMBER(MATCH(B23,Tickers!A:A,0)),"Acción",
@@ -7803,25 +8497,25 @@
         <v>Cedear</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E23">
-        <v>6490</v>
+        <v>1545</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(G23,CCL!A:B,2,FALSE)</f>
-        <v>1185.97</v>
+        <v>1291.78</v>
       </c>
       <c r="G23" s="6">
-        <v>45688</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C24" t="str">
         <f>IF(ISNUMBER(MATCH(B24,Tickers!A:A,0)),"Acción",
@@ -7832,25 +8526,25 @@
         <v>Cedear</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>31725</v>
+        <v>1946.5</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(G24,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1386.59</v>
       </c>
       <c r="G24" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C25" t="str">
         <f>IF(ISNUMBER(MATCH(B25,Tickers!A:A,0)),"Acción",
@@ -7861,25 +8555,25 @@
         <v>Cedear</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E25">
-        <v>6460</v>
+        <v>1964</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(G25,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1386.59</v>
       </c>
       <c r="G25" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" t="str">
         <f>IF(ISNUMBER(MATCH(B26,Tickers!A:A,0)),"Acción",
@@ -7890,10 +8584,10 @@
         <v>Cedear</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E26">
-        <v>14800</v>
+        <v>25025</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(G26,CCL!A:B,2,FALSE)</f>
@@ -7903,12 +8597,12 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C27" t="str">
         <f>IF(ISNUMBER(MATCH(B27,Tickers!A:A,0)),"Acción",
@@ -7919,25 +8613,25 @@
         <v>Cedear</v>
       </c>
       <c r="D27">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="E27">
-        <v>6080</v>
+        <v>20387.5</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(G27,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1345.7</v>
       </c>
       <c r="G27" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" t="str">
         <f>IF(ISNUMBER(MATCH(B28,Tickers!A:A,0)),"Acción",
@@ -7951,22 +8645,22 @@
         <v>6</v>
       </c>
       <c r="E28">
-        <v>7090</v>
+        <v>20360.5</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(G28,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1304.57</v>
       </c>
       <c r="G28" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="str">
         <f>IF(ISNUMBER(MATCH(B29,Tickers!A:A,0)),"Acción",
@@ -7977,25 +8671,25 @@
         <v>Acción</v>
       </c>
       <c r="D29">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="E29">
-        <v>1710</v>
+        <v>7900</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(G29,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1189.68</v>
       </c>
       <c r="G29" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C30" t="str">
         <f>IF(ISNUMBER(MATCH(B30,Tickers!A:A,0)),"Acción",
@@ -8006,10 +8700,10 @@
         <v>Acción</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E30">
-        <v>6900</v>
+        <v>9200</v>
       </c>
       <c r="F30">
         <f>VLOOKUP(G30,CCL!A:B,2,FALSE)</f>
@@ -8019,12 +8713,12 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C31" t="str">
         <f>IF(ISNUMBER(MATCH(B31,Tickers!A:A,0)),"Acción",
@@ -8035,25 +8729,25 @@
         <v>Acción</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31">
-        <v>12100</v>
+        <v>8570</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(G31,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1176.1500000000001</v>
       </c>
       <c r="G31" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" t="str">
         <f>IF(ISNUMBER(MATCH(B32,Tickers!A:A,0)),"Acción",
@@ -8064,22 +8758,22 @@
         <v>Acción</v>
       </c>
       <c r="D32">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>2660</v>
+        <v>8020</v>
       </c>
       <c r="F32">
         <f>VLOOKUP(G32,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1174.5899999999999</v>
       </c>
       <c r="G32" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>15</v>
@@ -8093,25 +8787,25 @@
         <v>Acción</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>9200</v>
+        <v>4092</v>
       </c>
       <c r="F33">
         <f>VLOOKUP(G33,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1345.7</v>
       </c>
       <c r="G33" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C34" t="str">
         <f>IF(ISNUMBER(MATCH(B34,Tickers!A:A,0)),"Acción",
@@ -8122,25 +8816,25 @@
         <v>Acción</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <v>8260</v>
+        <v>4337.95</v>
       </c>
       <c r="F34">
         <f>VLOOKUP(G34,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="G34" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C35" t="str">
         <f>IF(ISNUMBER(MATCH(B35,Tickers!A:A,0)),"Acción",
@@ -8151,25 +8845,25 @@
         <v>Acción</v>
       </c>
       <c r="D35">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E35">
-        <v>4225</v>
+        <v>4180</v>
       </c>
       <c r="F35">
         <f>VLOOKUP(G35,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1312.5</v>
       </c>
       <c r="G35" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C36" t="str">
         <f>IF(ISNUMBER(MATCH(B36,Tickers!A:A,0)),"Acción",
@@ -8177,28 +8871,28 @@
   IF(ISNUMBER(MATCH(B36,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B36,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D36">
-        <v>3914</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>757.2</v>
+        <v>4450</v>
       </c>
       <c r="F36">
         <f>VLOOKUP(G36,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1304.57</v>
       </c>
       <c r="G36" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C37" t="str">
         <f>IF(ISNUMBER(MATCH(B37,Tickers!A:A,0)),"Acción",
@@ -8206,28 +8900,28 @@
   IF(ISNUMBER(MATCH(B37,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B37,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D37">
-        <v>1219</v>
+        <v>12</v>
       </c>
       <c r="E37">
-        <v>810</v>
+        <v>11000</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(G37,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1189.68</v>
       </c>
       <c r="G37" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C38" t="str">
         <f>IF(ISNUMBER(MATCH(B38,Tickers!A:A,0)),"Acción",
@@ -8235,13 +8929,13 @@
   IF(ISNUMBER(MATCH(B38,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B38,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D38">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <v>25025</v>
+        <v>12100</v>
       </c>
       <c r="F38">
         <f>VLOOKUP(G38,CCL!A:B,2,FALSE)</f>
@@ -8251,12 +8945,12 @@
         <v>45687</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C39" t="str">
         <f>IF(ISNUMBER(MATCH(B39,Tickers!A:A,0)),"Acción",
@@ -8264,28 +8958,28 @@
   IF(ISNUMBER(MATCH(B39,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B39,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D39">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="E39">
-        <v>14075</v>
+        <v>9760</v>
       </c>
       <c r="F39">
         <f>VLOOKUP(G39,CCL!A:B,2,FALSE)</f>
-        <v>1180.7</v>
+        <v>1066.95</v>
       </c>
       <c r="G39" s="6">
-        <v>45687</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C40" t="str">
         <f>IF(ISNUMBER(MATCH(B40,Tickers!A:A,0)),"Acción",
@@ -8296,25 +8990,25 @@
         <v>Acción</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>6570</v>
+        <v>9090</v>
       </c>
       <c r="F40">
         <f>VLOOKUP(G40,CCL!A:B,2,FALSE)</f>
-        <v>1176.1500000000001</v>
+        <v>1106.07</v>
       </c>
       <c r="G40" s="6">
-        <v>45684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C41" t="str">
         <f>IF(ISNUMBER(MATCH(B41,Tickers!A:A,0)),"Acción",
@@ -8325,25 +9019,25 @@
         <v>Acción</v>
       </c>
       <c r="D41">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="E41">
-        <v>2555</v>
+        <v>9490</v>
       </c>
       <c r="F41">
         <f>VLOOKUP(G41,CCL!A:B,2,FALSE)</f>
-        <v>1176.1500000000001</v>
+        <v>1154.77</v>
       </c>
       <c r="G41" s="6">
-        <v>45684</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" t="str">
         <f>IF(ISNUMBER(MATCH(B42,Tickers!A:A,0)),"Acción",
@@ -8354,25 +9048,25 @@
         <v>Acción</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E42">
-        <v>8570</v>
+        <v>8020</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(G42,CCL!A:B,2,FALSE)</f>
-        <v>1176.1500000000001</v>
+        <v>1227.58</v>
       </c>
       <c r="G42" s="6">
-        <v>45684</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C43" t="str">
         <f>IF(ISNUMBER(MATCH(B43,Tickers!A:A,0)),"Acción",
@@ -8380,28 +9074,28 @@
   IF(ISNUMBER(MATCH(B43,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B43,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E43">
-        <v>13300</v>
+        <v>8060</v>
       </c>
       <c r="F43">
         <f>VLOOKUP(G43,CCL!A:B,2,FALSE)</f>
-        <v>1187</v>
+        <v>1245.78</v>
       </c>
       <c r="G43" s="6">
-        <v>45680</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C44" t="str">
         <f>IF(ISNUMBER(MATCH(B44,Tickers!A:A,0)),"Acción",
@@ -8412,25 +9106,25 @@
         <v>Acción</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E44">
-        <v>2190</v>
+        <v>8210</v>
       </c>
       <c r="F44">
         <f>VLOOKUP(G44,CCL!A:B,2,FALSE)</f>
-        <v>1187.49</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G44" s="6">
-        <v>45679</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C45" t="str">
         <f>IF(ISNUMBER(MATCH(B45,Tickers!A:A,0)),"Acción",
@@ -8438,28 +9132,28 @@
   IF(ISNUMBER(MATCH(B45,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B45,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="E45">
-        <v>13975</v>
+        <v>7150</v>
       </c>
       <c r="F45">
         <f>VLOOKUP(G45,CCL!A:B,2,FALSE)</f>
-        <v>1191.05</v>
+        <v>1386.59</v>
       </c>
       <c r="G45" s="6">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C46" t="str">
         <f>IF(ISNUMBER(MATCH(B46,Tickers!A:A,0)),"Acción",
@@ -8467,28 +9161,28 @@
   IF(ISNUMBER(MATCH(B46,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B46,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D46">
-        <v>610</v>
+        <v>6</v>
       </c>
       <c r="E46">
-        <v>825</v>
+        <v>7650</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(G46,CCL!A:B,2,FALSE)</f>
-        <v>1184.98</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="G46" s="6">
-        <v>45666</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C47" t="str">
         <f>IF(ISNUMBER(MATCH(B47,Tickers!A:A,0)),"Acción",
@@ -8496,28 +9190,28 @@
   IF(ISNUMBER(MATCH(B47,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B47,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D47">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="E47">
-        <v>828</v>
+        <v>7538.95</v>
       </c>
       <c r="F47">
         <f>VLOOKUP(G47,CCL!A:B,2,FALSE)</f>
-        <v>1186.04</v>
+        <v>1312.5</v>
       </c>
       <c r="G47" s="6">
-        <v>45660</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C48" t="str">
         <f>IF(ISNUMBER(MATCH(B48,Tickers!A:A,0)),"Acción",
@@ -8525,28 +9219,28 @@
   IF(ISNUMBER(MATCH(B48,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B48,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D48">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>14325</v>
+        <v>7837.9</v>
       </c>
       <c r="F48">
         <f>VLOOKUP(G48,CCL!A:B,2,FALSE)</f>
-        <v>1186.04</v>
+        <v>1304.57</v>
       </c>
       <c r="G48" s="6">
-        <v>45660</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C49" t="str">
         <f>IF(ISNUMBER(MATCH(B49,Tickers!A:A,0)),"Acción",
@@ -8557,25 +9251,25 @@
         <v>Cedear</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>17750</v>
+        <v>25400</v>
       </c>
       <c r="F49">
         <f>VLOOKUP(G49,CCL!A:B,2,FALSE)</f>
-        <v>1186.04</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="G49" s="6">
-        <v>45660</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C50" t="str">
         <f>IF(ISNUMBER(MATCH(B50,Tickers!A:A,0)),"Acción",
@@ -8583,28 +9277,28 @@
   IF(ISNUMBER(MATCH(B50,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B50,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>8020</v>
+        <v>24450</v>
       </c>
       <c r="F50">
         <f>VLOOKUP(G50,CCL!A:B,2,FALSE)</f>
-        <v>1174.5899999999999</v>
+        <v>1297.19</v>
       </c>
       <c r="G50" s="6">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C51" t="str">
         <f>IF(ISNUMBER(MATCH(B51,Tickers!A:A,0)),"Acción",
@@ -8612,28 +9306,28 @@
   IF(ISNUMBER(MATCH(B51,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B51,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="E51">
-        <v>29725</v>
+        <v>307</v>
       </c>
       <c r="F51">
         <f>VLOOKUP(G51,CCL!A:B,2,FALSE)</f>
-        <v>1174.5899999999999</v>
+        <v>1227.58</v>
       </c>
       <c r="G51" s="6">
-        <v>45659</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C52" t="str">
         <f>IF(ISNUMBER(MATCH(B52,Tickers!A:A,0)),"Acción",
@@ -8644,25 +9338,25 @@
         <v>Acción</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="E52">
-        <v>7070</v>
+        <v>340</v>
       </c>
       <c r="F52">
         <f>VLOOKUP(G52,CCL!A:B,2,FALSE)</f>
-        <v>1184.1600000000001</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G52" s="6">
-        <v>45656</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C53" t="str">
         <f>IF(ISNUMBER(MATCH(B53,Tickers!A:A,0)),"Acción",
@@ -8673,25 +9367,25 @@
         <v>Acción</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E53">
-        <v>7560</v>
+        <v>1555</v>
       </c>
       <c r="F53">
         <f>VLOOKUP(G53,CCL!A:B,2,FALSE)</f>
-        <v>1184.1600000000001</v>
+        <v>1189.68</v>
       </c>
       <c r="G53" s="6">
-        <v>45656</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C54" t="str">
         <f>IF(ISNUMBER(MATCH(B54,Tickers!A:A,0)),"Acción",
@@ -8702,25 +9396,25 @@
         <v>Acción</v>
       </c>
       <c r="D54">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="E54">
-        <v>2710</v>
+        <v>1710</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(G54,CCL!A:B,2,FALSE)</f>
-        <v>1187.6199999999999</v>
+        <v>1180.7</v>
       </c>
       <c r="G54" s="6">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C55" t="str">
         <f>IF(ISNUMBER(MATCH(B55,Tickers!A:A,0)),"Acción",
@@ -8728,28 +9422,28 @@
   IF(ISNUMBER(MATCH(B55,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B55,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D55">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="E55">
-        <v>6680</v>
+        <v>1645</v>
       </c>
       <c r="F55">
         <f>VLOOKUP(G55,CCL!A:B,2,FALSE)</f>
-        <v>1187.6199999999999</v>
+        <v>1166.99</v>
       </c>
       <c r="G55" s="6">
-        <v>45652</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C56" t="str">
         <f>IF(ISNUMBER(MATCH(B56,Tickers!A:A,0)),"Acción",
@@ -8757,28 +9451,28 @@
   IF(ISNUMBER(MATCH(B56,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B56,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="E56">
-        <v>6640</v>
+        <v>1545</v>
       </c>
       <c r="F56">
         <f>VLOOKUP(G56,CCL!A:B,2,FALSE)</f>
-        <v>1166.99</v>
+        <v>1106.07</v>
       </c>
       <c r="G56" s="6">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C57" t="str">
         <f>IF(ISNUMBER(MATCH(B57,Tickers!A:A,0)),"Acción",
@@ -8789,25 +9483,25 @@
         <v>Cedear</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>33725</v>
+        <v>11775</v>
       </c>
       <c r="F57">
         <f>VLOOKUP(G57,CCL!A:B,2,FALSE)</f>
-        <v>1166.99</v>
+        <v>1157.72</v>
       </c>
       <c r="G57" s="6">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C58" t="str">
         <f>IF(ISNUMBER(MATCH(B58,Tickers!A:A,0)),"Acción",
@@ -8815,28 +9509,28 @@
   IF(ISNUMBER(MATCH(B58,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B58,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D58">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>1645</v>
+        <v>14100</v>
       </c>
       <c r="F58">
         <f>VLOOKUP(G58,CCL!A:B,2,FALSE)</f>
-        <v>1166.99</v>
+        <v>1155.92</v>
       </c>
       <c r="G58" s="6">
-        <v>45649</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C59" t="str">
         <f>IF(ISNUMBER(MATCH(B59,Tickers!A:A,0)),"Acción",
@@ -8847,25 +9541,25 @@
         <v>Cedear</v>
       </c>
       <c r="D59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E59">
-        <v>6690</v>
+        <v>13275</v>
       </c>
       <c r="F59">
         <f>VLOOKUP(G59,CCL!A:B,2,FALSE)</f>
-        <v>1122.06</v>
+        <v>1163.3900000000001</v>
       </c>
       <c r="G59" s="6">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C60" t="str">
         <f>IF(ISNUMBER(MATCH(B60,Tickers!A:A,0)),"Acción",
@@ -8873,28 +9567,28 @@
   IF(ISNUMBER(MATCH(B60,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B60,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D60">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="E60">
-        <v>736.6</v>
+        <v>2190</v>
       </c>
       <c r="F60">
         <f>VLOOKUP(G60,CCL!A:B,2,FALSE)</f>
-        <v>1122.06</v>
+        <v>1187.49</v>
       </c>
       <c r="G60" s="6">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C61" t="str">
         <f>IF(ISNUMBER(MATCH(B61,Tickers!A:A,0)),"Acción",
@@ -8902,23 +9596,23 @@
   IF(ISNUMBER(MATCH(B61,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B61,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D61">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E61">
-        <v>13525</v>
+        <v>2710</v>
       </c>
       <c r="F61">
         <f>VLOOKUP(G61,CCL!A:B,2,FALSE)</f>
-        <v>1122.06</v>
+        <v>1187.6199999999999</v>
       </c>
       <c r="G61" s="6">
-        <v>45642</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
@@ -8947,7 +9641,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8976,12 +9670,12 @@
         <v>45638</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C64" t="str">
         <f>IF(ISNUMBER(MATCH(B64,Tickers!A:A,0)),"Acción",
@@ -8989,28 +9683,28 @@
   IF(ISNUMBER(MATCH(B64,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B64,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D64">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>9760</v>
+        <v>6690</v>
       </c>
       <c r="F64">
         <f>VLOOKUP(G64,CCL!A:B,2,FALSE)</f>
-        <v>1066.95</v>
+        <v>1122.06</v>
       </c>
       <c r="G64" s="6">
-        <v>45638</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C65" t="str">
         <f>IF(ISNUMBER(MATCH(B65,Tickers!A:A,0)),"Acción",
@@ -9018,23 +9712,23 @@
   IF(ISNUMBER(MATCH(B65,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B65,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Cedear</v>
       </c>
       <c r="D65">
-        <v>703</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>715.8</v>
+        <v>14800</v>
       </c>
       <c r="F65">
         <f>VLOOKUP(G65,CCL!A:B,2,FALSE)</f>
-        <v>1102.79</v>
+        <v>1180.7</v>
       </c>
       <c r="G65" s="6">
-        <v>45630</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -9050,20 +9744,20 @@
         <v>Bono</v>
       </c>
       <c r="D66">
-        <v>283</v>
+        <v>1328</v>
       </c>
       <c r="E66">
-        <v>713.4</v>
+        <v>813.9</v>
       </c>
       <c r="F66">
         <f>VLOOKUP(G66,CCL!A:B,2,FALSE)</f>
-        <v>1097.69</v>
+        <v>1229.6300000000001</v>
       </c>
       <c r="G66" s="6">
-        <v>45628</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -9079,25 +9773,25 @@
         <v>Bono</v>
       </c>
       <c r="D67">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="E67">
-        <v>715.7</v>
+        <v>787.7</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(G67,CCL!A:B,2,FALSE)</f>
-        <v>1097.69</v>
+        <v>1207.55</v>
       </c>
       <c r="G67" s="6">
-        <v>45628</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C68" t="str">
         <f>IF(ISNUMBER(MATCH(B68,Tickers!A:A,0)),"Acción",
@@ -9105,28 +9799,28 @@
   IF(ISNUMBER(MATCH(B68,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B68,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D68">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="E68">
-        <v>6050</v>
+        <v>814.5</v>
       </c>
       <c r="F68">
         <f>VLOOKUP(G68,CCL!A:B,2,FALSE)</f>
-        <v>1110.1099999999999</v>
+        <v>1200.48</v>
       </c>
       <c r="G68" s="6">
-        <v>45621</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C69" t="str">
         <f>IF(ISNUMBER(MATCH(B69,Tickers!A:A,0)),"Acción",
@@ -9134,28 +9828,28 @@
   IF(ISNUMBER(MATCH(B69,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B69,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>1219</v>
       </c>
       <c r="E69">
-        <v>19250</v>
+        <v>810</v>
       </c>
       <c r="F69">
         <f>VLOOKUP(G69,CCL!A:B,2,FALSE)</f>
-        <v>1110.1099999999999</v>
+        <v>1180.7</v>
       </c>
       <c r="G69" s="6">
-        <v>45621</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="str">
         <f>IF(ISNUMBER(MATCH(B70,Tickers!A:A,0)),"Acción",
@@ -9163,28 +9857,28 @@
   IF(ISNUMBER(MATCH(B70,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B70,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D70">
-        <v>39</v>
+        <v>610</v>
       </c>
       <c r="E70">
-        <v>12825</v>
+        <v>825</v>
       </c>
       <c r="F70">
         <f>VLOOKUP(G70,CCL!A:B,2,FALSE)</f>
-        <v>1110.1099999999999</v>
+        <v>1184.98</v>
       </c>
       <c r="G70" s="6">
-        <v>45621</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C71" t="str">
         <f>IF(ISNUMBER(MATCH(B71,Tickers!A:A,0)),"Acción",
@@ -9192,28 +9886,28 @@
   IF(ISNUMBER(MATCH(B71,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B71,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Bono</v>
       </c>
       <c r="D71">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E71">
-        <v>1545</v>
+        <v>828</v>
       </c>
       <c r="F71">
         <f>VLOOKUP(G71,CCL!A:B,2,FALSE)</f>
-        <v>1106.07</v>
+        <v>1186.04</v>
       </c>
       <c r="G71" s="6">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C72" t="str">
         <f>IF(ISNUMBER(MATCH(B72,Tickers!A:A,0)),"Acción",
@@ -9221,28 +9915,28 @@
   IF(ISNUMBER(MATCH(B72,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B72,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D72">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E72">
-        <v>5550</v>
+        <v>736.6</v>
       </c>
       <c r="F72">
         <f>VLOOKUP(G72,CCL!A:B,2,FALSE)</f>
-        <v>1106.07</v>
+        <v>1122.06</v>
       </c>
       <c r="G72" s="6">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C73" t="str">
         <f>IF(ISNUMBER(MATCH(B73,Tickers!A:A,0)),"Acción",
@@ -9250,28 +9944,28 @@
   IF(ISNUMBER(MATCH(B73,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B73,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Bono</v>
       </c>
       <c r="D73">
-        <v>37</v>
+        <v>703</v>
       </c>
       <c r="E73">
-        <v>6220</v>
+        <v>715.8</v>
       </c>
       <c r="F73">
         <f>VLOOKUP(G73,CCL!A:B,2,FALSE)</f>
-        <v>1106.07</v>
+        <v>1102.79</v>
       </c>
       <c r="G73" s="6">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C74" t="str">
         <f>IF(ISNUMBER(MATCH(B74,Tickers!A:A,0)),"Acción",
@@ -9279,28 +9973,28 @@
   IF(ISNUMBER(MATCH(B74,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B74,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Bono</v>
       </c>
       <c r="D74">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="E74">
-        <v>9090</v>
+        <v>713.4</v>
       </c>
       <c r="F74">
         <f>VLOOKUP(G74,CCL!A:B,2,FALSE)</f>
-        <v>1106.07</v>
+        <v>1097.69</v>
       </c>
       <c r="G74" s="6">
-        <v>45618</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C75" t="str">
         <f>IF(ISNUMBER(MATCH(B75,Tickers!A:A,0)),"Acción",
@@ -9308,23 +10002,23 @@
   IF(ISNUMBER(MATCH(B75,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B75,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D75">
-        <v>5</v>
+        <v>420</v>
       </c>
       <c r="E75">
-        <v>22900</v>
+        <v>715.7</v>
       </c>
       <c r="F75">
         <f>VLOOKUP(G75,CCL!A:B,2,FALSE)</f>
-        <v>1106.27</v>
+        <v>1097.69</v>
       </c>
       <c r="G75" s="6">
-        <v>45615</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -9353,12 +10047,12 @@
         <v>45615</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C77" t="str">
         <f>IF(ISNUMBER(MATCH(B77,Tickers!A:A,0)),"Acción",
@@ -9366,28 +10060,28 @@
   IF(ISNUMBER(MATCH(B77,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B77,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Bono</v>
       </c>
       <c r="D77">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="E77">
-        <v>3505</v>
+        <v>716</v>
       </c>
       <c r="F77">
         <f>VLOOKUP(G77,CCL!A:B,2,FALSE)</f>
-        <v>1136.6400000000001</v>
+        <v>1155.92</v>
       </c>
       <c r="G77" s="6">
-        <v>45611</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C78" t="str">
         <f>IF(ISNUMBER(MATCH(B78,Tickers!A:A,0)),"Acción",
@@ -9395,28 +10089,28 @@
   IF(ISNUMBER(MATCH(B78,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B78,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D78">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="E78">
-        <v>11775</v>
+        <v>715.3</v>
       </c>
       <c r="F78">
         <f>VLOOKUP(G78,CCL!A:B,2,FALSE)</f>
-        <v>1157.72</v>
+        <v>1155.92</v>
       </c>
       <c r="G78" s="6">
-        <v>45610</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C79" t="str">
         <f>IF(ISNUMBER(MATCH(B79,Tickers!A:A,0)),"Acción",
@@ -9424,28 +10118,28 @@
   IF(ISNUMBER(MATCH(B79,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B79,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>998</v>
       </c>
       <c r="E79">
-        <v>18550</v>
+        <v>712.4</v>
       </c>
       <c r="F79">
         <f>VLOOKUP(G79,CCL!A:B,2,FALSE)</f>
-        <v>1157.72</v>
+        <v>1163.3900000000001</v>
       </c>
       <c r="G79" s="6">
-        <v>45610</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C80" t="str">
         <f>IF(ISNUMBER(MATCH(B80,Tickers!A:A,0)),"Acción",
@@ -9453,28 +10147,28 @@
   IF(ISNUMBER(MATCH(B80,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B80,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>351</v>
       </c>
       <c r="E80">
-        <v>21375</v>
+        <v>702.3</v>
       </c>
       <c r="F80">
         <f>VLOOKUP(G80,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1158.29</v>
       </c>
       <c r="G80" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="str">
         <f>IF(ISNUMBER(MATCH(B81,Tickers!A:A,0)),"Acción",
@@ -9482,28 +10176,28 @@
   IF(ISNUMBER(MATCH(B81,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B81,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>743</v>
       </c>
       <c r="E81">
-        <v>12875</v>
+        <v>677.8</v>
       </c>
       <c r="F81">
         <f>VLOOKUP(G81,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1178.76</v>
       </c>
       <c r="G81" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="str">
         <f>IF(ISNUMBER(MATCH(B82,Tickers!A:A,0)),"Acción",
@@ -9511,28 +10205,28 @@
   IF(ISNUMBER(MATCH(B82,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B82,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D82">
-        <v>6</v>
+        <v>1470</v>
       </c>
       <c r="E82">
-        <v>24275</v>
+        <v>672</v>
       </c>
       <c r="F82">
         <f>VLOOKUP(G82,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1154.77</v>
       </c>
       <c r="G82" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C83" t="str">
         <f>IF(ISNUMBER(MATCH(B83,Tickers!A:A,0)),"Acción",
@@ -9540,28 +10234,28 @@
   IF(ISNUMBER(MATCH(B83,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B83,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Bono</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="E83">
-        <v>14100</v>
+        <v>633.9</v>
       </c>
       <c r="F83">
         <f>VLOOKUP(G83,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1183.9100000000001</v>
       </c>
       <c r="G83" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C84" t="str">
         <f>IF(ISNUMBER(MATCH(B84,Tickers!A:A,0)),"Acción",
@@ -9569,25 +10263,25 @@
   IF(ISNUMBER(MATCH(B84,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B84,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Bono</v>
       </c>
       <c r="D84">
-        <v>111</v>
+        <v>784</v>
       </c>
       <c r="E84">
-        <v>1780</v>
+        <v>642.6</v>
       </c>
       <c r="F84">
         <f>VLOOKUP(G84,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1194.93</v>
       </c>
       <c r="G84" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45586</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -9601,25 +10295,25 @@
         <v>Bono</v>
       </c>
       <c r="D85">
-        <v>289</v>
+        <v>11026</v>
       </c>
       <c r="E85">
-        <v>716</v>
+        <v>0.54459999999999997</v>
       </c>
       <c r="F85">
         <f>VLOOKUP(G85,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1194.6199999999999</v>
       </c>
       <c r="G85" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C86" t="str">
         <f>IF(ISNUMBER(MATCH(B86,Tickers!A:A,0)),"Acción",
@@ -9630,25 +10324,25 @@
         <v>Bono</v>
       </c>
       <c r="D86">
-        <v>276</v>
+        <v>3914</v>
       </c>
       <c r="E86">
-        <v>715.3</v>
+        <v>757.2</v>
       </c>
       <c r="F86">
         <f>VLOOKUP(G86,CCL!A:B,2,FALSE)</f>
-        <v>1155.92</v>
+        <v>1180.7</v>
       </c>
       <c r="G86" s="6">
-        <v>45609</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C87" t="str">
         <f>IF(ISNUMBER(MATCH(B87,Tickers!A:A,0)),"Acción",
@@ -9656,28 +10350,28 @@
   IF(ISNUMBER(MATCH(B87,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B87,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D87">
-        <v>998</v>
+        <v>63</v>
       </c>
       <c r="E87">
-        <v>712.4</v>
+        <v>7450</v>
       </c>
       <c r="F87">
         <f>VLOOKUP(G87,CCL!A:B,2,FALSE)</f>
-        <v>1163.3900000000001</v>
+        <v>1291.8599999999999</v>
       </c>
       <c r="G87" s="6">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C88" t="str">
         <f>IF(ISNUMBER(MATCH(B88,Tickers!A:A,0)),"Acción",
@@ -9685,28 +10379,28 @@
   IF(ISNUMBER(MATCH(B88,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B88,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E88">
-        <v>18350</v>
+        <v>7210</v>
       </c>
       <c r="F88">
         <f>VLOOKUP(G88,CCL!A:B,2,FALSE)</f>
-        <v>1163.3900000000001</v>
+        <v>1189.68</v>
       </c>
       <c r="G88" s="6">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C89" t="str">
         <f>IF(ISNUMBER(MATCH(B89,Tickers!A:A,0)),"Acción",
@@ -9714,28 +10408,28 @@
   IF(ISNUMBER(MATCH(B89,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B89,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E89">
-        <v>13275</v>
+        <v>8260</v>
       </c>
       <c r="F89">
         <f>VLOOKUP(G89,CCL!A:B,2,FALSE)</f>
-        <v>1163.3900000000001</v>
+        <v>1180.7</v>
       </c>
       <c r="G89" s="6">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="str">
         <f>IF(ISNUMBER(MATCH(B90,Tickers!A:A,0)),"Acción",
@@ -9743,28 +10437,28 @@
   IF(ISNUMBER(MATCH(B90,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B90,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D90">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E90">
-        <v>12925</v>
+        <v>7560</v>
       </c>
       <c r="F90">
         <f>VLOOKUP(G90,CCL!A:B,2,FALSE)</f>
-        <v>1163.3900000000001</v>
+        <v>1184.1600000000001</v>
       </c>
       <c r="G90" s="6">
-        <v>45607</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C91" t="str">
         <f>IF(ISNUMBER(MATCH(B91,Tickers!A:A,0)),"Acción",
@@ -9772,28 +10466,28 @@
   IF(ISNUMBER(MATCH(B91,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B91,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E91">
-        <v>7110</v>
+        <v>6220</v>
       </c>
       <c r="F91">
         <f>VLOOKUP(G91,CCL!A:B,2,FALSE)</f>
-        <v>1158.29</v>
+        <v>1106.07</v>
       </c>
       <c r="G91" s="6">
-        <v>45604</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45618</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C92" t="str">
         <f>IF(ISNUMBER(MATCH(B92,Tickers!A:A,0)),"Acción",
@@ -9801,28 +10495,28 @@
   IF(ISNUMBER(MATCH(B92,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B92,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D92">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E92">
-        <v>17575</v>
+        <v>6400</v>
       </c>
       <c r="F92">
         <f>VLOOKUP(G92,CCL!A:B,2,FALSE)</f>
-        <v>1158.29</v>
+        <v>1154.77</v>
       </c>
       <c r="G92" s="6">
-        <v>45604</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="str">
         <f>IF(ISNUMBER(MATCH(B93,Tickers!A:A,0)),"Acción",
@@ -9830,28 +10524,28 @@
   IF(ISNUMBER(MATCH(B93,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B93,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D93">
-        <v>351</v>
+        <v>47</v>
       </c>
       <c r="E93">
-        <v>702.3</v>
+        <v>5280</v>
       </c>
       <c r="F93">
         <f>VLOOKUP(G93,CCL!A:B,2,FALSE)</f>
-        <v>1158.29</v>
+        <v>1227.58</v>
       </c>
       <c r="G93" s="6">
-        <v>45604</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="str">
         <f>IF(ISNUMBER(MATCH(B94,Tickers!A:A,0)),"Acción",
@@ -9859,28 +10553,28 @@
   IF(ISNUMBER(MATCH(B94,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B94,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D94">
-        <v>743</v>
+        <v>20</v>
       </c>
       <c r="E94">
-        <v>677.8</v>
+        <v>5400</v>
       </c>
       <c r="F94">
         <f>VLOOKUP(G94,CCL!A:B,2,FALSE)</f>
-        <v>1178.76</v>
+        <v>1259.83</v>
       </c>
       <c r="G94" s="6">
-        <v>45600</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C95" t="str">
         <f>IF(ISNUMBER(MATCH(B95,Tickers!A:A,0)),"Acción",
@@ -9891,25 +10585,25 @@
         <v>Acción</v>
       </c>
       <c r="D95">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E95">
-        <v>5370</v>
+        <v>5400</v>
       </c>
       <c r="F95">
         <f>VLOOKUP(G95,CCL!A:B,2,FALSE)</f>
-        <v>1154.77</v>
+        <v>1245.78</v>
       </c>
       <c r="G95" s="6">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>38</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C96" t="str">
         <f>IF(ISNUMBER(MATCH(B96,Tickers!A:A,0)),"Acción",
@@ -9920,22 +10614,22 @@
         <v>Acción</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>9490</v>
+        <v>5410</v>
       </c>
       <c r="F96">
         <f>VLOOKUP(G96,CCL!A:B,2,FALSE)</f>
-        <v>1154.77</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G96" s="6">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B97" t="s">
         <v>5</v>
@@ -9949,25 +10643,25 @@
         <v>Acción</v>
       </c>
       <c r="D97">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E97">
-        <v>6400</v>
+        <v>3956.05</v>
       </c>
       <c r="F97">
         <f>VLOOKUP(G97,CCL!A:B,2,FALSE)</f>
-        <v>1154.77</v>
+        <v>1386.59</v>
       </c>
       <c r="G97" s="6">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="str">
         <f>IF(ISNUMBER(MATCH(B98,Tickers!A:A,0)),"Acción",
@@ -9975,28 +10669,28 @@
   IF(ISNUMBER(MATCH(B98,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B98,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D98">
-        <v>1470</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>672</v>
+        <v>3995</v>
       </c>
       <c r="F98">
         <f>VLOOKUP(G98,CCL!A:B,2,FALSE)</f>
-        <v>1154.77</v>
+        <v>1428.72</v>
       </c>
       <c r="G98" s="6">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C99" t="str">
         <f>IF(ISNUMBER(MATCH(B99,Tickers!A:A,0)),"Acción",
@@ -10004,28 +10698,28 @@
   IF(ISNUMBER(MATCH(B99,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B99,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Acción</v>
       </c>
       <c r="D99">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E99">
-        <v>633.9</v>
+        <v>4305.1499999999996</v>
       </c>
       <c r="F99">
         <f>VLOOKUP(G99,CCL!A:B,2,FALSE)</f>
-        <v>1183.9100000000001</v>
+        <v>1301.8900000000001</v>
       </c>
       <c r="G99" s="6">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="str">
         <f>IF(ISNUMBER(MATCH(B100,Tickers!A:A,0)),"Acción",
@@ -10033,28 +10727,28 @@
   IF(ISNUMBER(MATCH(B100,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B100,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E100">
-        <v>16875</v>
+        <v>4160</v>
       </c>
       <c r="F100">
         <f>VLOOKUP(G100,CCL!A:B,2,FALSE)</f>
-        <v>1183.9100000000001</v>
+        <v>1312.5</v>
       </c>
       <c r="G100" s="6">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45450</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C101" t="str">
         <f>IF(ISNUMBER(MATCH(B101,Tickers!A:A,0)),"Acción",
@@ -10062,28 +10756,28 @@
   IF(ISNUMBER(MATCH(B101,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B101,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D101">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E101">
-        <v>26450</v>
+        <v>4245</v>
       </c>
       <c r="F101">
         <f>VLOOKUP(G101,CCL!A:B,2,FALSE)</f>
-        <v>1183.9100000000001</v>
+        <v>1304.57</v>
       </c>
       <c r="G101" s="6">
-        <v>45588</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C102" t="str">
         <f>IF(ISNUMBER(MATCH(B102,Tickers!A:A,0)),"Acción",
@@ -10091,28 +10785,28 @@
   IF(ISNUMBER(MATCH(B102,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B102,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Cedear</v>
       </c>
       <c r="D102">
-        <v>784</v>
+        <v>14</v>
       </c>
       <c r="E102">
-        <v>642.6</v>
+        <v>6270</v>
       </c>
       <c r="F102">
         <f>VLOOKUP(G102,CCL!A:B,2,FALSE)</f>
-        <v>1194.93</v>
+        <v>1199.7</v>
       </c>
       <c r="G102" s="6">
-        <v>45586</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C103" t="str">
         <f>IF(ISNUMBER(MATCH(B103,Tickers!A:A,0)),"Acción",
@@ -10123,25 +10817,25 @@
         <v>Cedear</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E103">
-        <v>17625</v>
+        <v>6160</v>
       </c>
       <c r="F103">
         <f>VLOOKUP(G103,CCL!A:B,2,FALSE)</f>
-        <v>1194.6199999999999</v>
+        <v>1185.97</v>
       </c>
       <c r="G103" s="6">
-        <v>45583</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C104" t="str">
         <f>IF(ISNUMBER(MATCH(B104,Tickers!A:A,0)),"Acción",
@@ -10152,25 +10846,25 @@
         <v>Cedear</v>
       </c>
       <c r="D104">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="E104">
-        <v>1560</v>
+        <v>6080</v>
       </c>
       <c r="F104">
         <f>VLOOKUP(G104,CCL!A:B,2,FALSE)</f>
-        <v>1194.6199999999999</v>
+        <v>1180.7</v>
       </c>
       <c r="G104" s="6">
-        <v>45583</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C105" t="str">
         <f>IF(ISNUMBER(MATCH(B105,Tickers!A:A,0)),"Acción",
@@ -10178,28 +10872,28 @@
   IF(ISNUMBER(MATCH(B105,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B105,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Bono</v>
+        <v>Cedear</v>
       </c>
       <c r="D105">
-        <v>11026</v>
+        <v>48</v>
       </c>
       <c r="E105">
-        <v>0.54459999999999997</v>
+        <v>3640</v>
       </c>
       <c r="F105">
         <f>VLOOKUP(G105,CCL!A:B,2,FALSE)</f>
-        <v>1194.6199999999999</v>
+        <v>1291.78</v>
       </c>
       <c r="G105" s="6">
-        <v>45583</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>38</v>
       </c>
       <c r="B106" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C106" t="str">
         <f>IF(ISNUMBER(MATCH(B106,Tickers!A:A,0)),"Acción",
@@ -10210,25 +10904,25 @@
         <v>Cedear</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E106">
-        <v>6350</v>
+        <v>4333</v>
       </c>
       <c r="F106">
         <f>VLOOKUP(G106,CCL!A:B,2,FALSE)</f>
-        <v>1225.94</v>
+        <v>1345.7</v>
       </c>
       <c r="G106" s="6">
-        <v>45569</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45470</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C107" t="str">
         <f>IF(ISNUMBER(MATCH(B107,Tickers!A:A,0)),"Acción",
@@ -10239,25 +10933,25 @@
         <v>Cedear</v>
       </c>
       <c r="D107">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E107">
-        <v>17100</v>
+        <v>7090</v>
       </c>
       <c r="F107">
         <f>VLOOKUP(G107,CCL!A:B,2,FALSE)</f>
-        <v>1232.44</v>
+        <v>1180.7</v>
       </c>
       <c r="G107" s="6">
-        <v>45568</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>39</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C108" t="str">
         <f>IF(ISNUMBER(MATCH(B108,Tickers!A:A,0)),"Acción",
@@ -10268,25 +10962,25 @@
         <v>Cedear</v>
       </c>
       <c r="D108">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E108">
-        <v>29000</v>
+        <v>19250</v>
       </c>
       <c r="F108">
         <f>VLOOKUP(G108,CCL!A:B,2,FALSE)</f>
-        <v>1227.58</v>
+        <v>1110.1099999999999</v>
       </c>
       <c r="G108" s="6">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C109" t="str">
         <f>IF(ISNUMBER(MATCH(B109,Tickers!A:A,0)),"Acción",
@@ -10294,28 +10988,28 @@
   IF(ISNUMBER(MATCH(B109,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B109,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D109">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E109">
-        <v>2855</v>
+        <v>18350</v>
       </c>
       <c r="F109">
         <f>VLOOKUP(G109,CCL!A:B,2,FALSE)</f>
-        <v>1227.58</v>
+        <v>1163.3900000000001</v>
       </c>
       <c r="G109" s="6">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45607</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C110" t="str">
         <f>IF(ISNUMBER(MATCH(B110,Tickers!A:A,0)),"Acción",
@@ -10323,28 +11017,28 @@
   IF(ISNUMBER(MATCH(B110,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B110,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D110">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="E110">
-        <v>5280</v>
+        <v>17575</v>
       </c>
       <c r="F110">
         <f>VLOOKUP(G110,CCL!A:B,2,FALSE)</f>
-        <v>1227.58</v>
+        <v>1158.29</v>
       </c>
       <c r="G110" s="6">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C111" t="str">
         <f>IF(ISNUMBER(MATCH(B111,Tickers!A:A,0)),"Acción",
@@ -10352,13 +11046,13 @@
   IF(ISNUMBER(MATCH(B111,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B111,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D111">
-        <v>145</v>
+        <v>6</v>
       </c>
       <c r="E111">
-        <v>307</v>
+        <v>29000</v>
       </c>
       <c r="F111">
         <f>VLOOKUP(G111,CCL!A:B,2,FALSE)</f>
@@ -10368,12 +11062,12 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C112" t="str">
         <f>IF(ISNUMBER(MATCH(B112,Tickers!A:A,0)),"Acción",
@@ -10381,28 +11075,28 @@
   IF(ISNUMBER(MATCH(B112,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B112,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D112">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E112">
-        <v>8020</v>
+        <v>28950</v>
       </c>
       <c r="F112">
         <f>VLOOKUP(G112,CCL!A:B,2,FALSE)</f>
-        <v>1227.58</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="G112" s="6">
-        <v>45561</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45558</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C113" t="str">
         <f>IF(ISNUMBER(MATCH(B113,Tickers!A:A,0)),"Acción",
@@ -10410,28 +11104,28 @@
   IF(ISNUMBER(MATCH(B113,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B113,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D113">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E113">
-        <v>1630</v>
+        <v>2145</v>
       </c>
       <c r="F113">
         <f>VLOOKUP(G113,CCL!A:B,2,FALSE)</f>
-        <v>1227.1600000000001</v>
+        <v>1189.68</v>
       </c>
       <c r="G113" s="6">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C114" t="str">
         <f>IF(ISNUMBER(MATCH(B114,Tickers!A:A,0)),"Acción",
@@ -10439,28 +11133,28 @@
   IF(ISNUMBER(MATCH(B114,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B114,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D114">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="E114">
-        <v>28950</v>
+        <v>2660</v>
       </c>
       <c r="F114">
         <f>VLOOKUP(G114,CCL!A:B,2,FALSE)</f>
-        <v>1227.1600000000001</v>
+        <v>1180.7</v>
       </c>
       <c r="G114" s="6">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C115" t="str">
         <f>IF(ISNUMBER(MATCH(B115,Tickers!A:A,0)),"Acción",
@@ -10468,28 +11162,28 @@
   IF(ISNUMBER(MATCH(B115,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B115,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D115">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E115">
-        <v>25400</v>
+        <v>2555</v>
       </c>
       <c r="F115">
         <f>VLOOKUP(G115,CCL!A:B,2,FALSE)</f>
-        <v>1227.1600000000001</v>
+        <v>1176.1500000000001</v>
       </c>
       <c r="G115" s="6">
-        <v>45558</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C116" t="str">
         <f>IF(ISNUMBER(MATCH(B116,Tickers!A:A,0)),"Acción",
@@ -10497,28 +11191,28 @@
   IF(ISNUMBER(MATCH(B116,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B116,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D116">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E116">
-        <v>6010</v>
+        <v>1780</v>
       </c>
       <c r="F116">
         <f>VLOOKUP(G116,CCL!A:B,2,FALSE)</f>
-        <v>1233.1099999999999</v>
+        <v>1155.92</v>
       </c>
       <c r="G116" s="6">
-        <v>45553</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C117" t="str">
         <f>IF(ISNUMBER(MATCH(B117,Tickers!A:A,0)),"Acción",
@@ -10526,28 +11220,28 @@
   IF(ISNUMBER(MATCH(B117,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B117,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E117">
-        <v>2940</v>
+        <v>17100</v>
       </c>
       <c r="F117">
         <f>VLOOKUP(G117,CCL!A:B,2,FALSE)</f>
-        <v>1259.83</v>
+        <v>1232.44</v>
       </c>
       <c r="G117" s="6">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45568</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C118" t="str">
         <f>IF(ISNUMBER(MATCH(B118,Tickers!A:A,0)),"Acción",
@@ -10555,28 +11249,28 @@
   IF(ISNUMBER(MATCH(B118,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B118,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E118">
-        <v>5400</v>
+        <v>17375</v>
       </c>
       <c r="F118">
         <f>VLOOKUP(G118,CCL!A:B,2,FALSE)</f>
-        <v>1259.83</v>
+        <v>1245.78</v>
       </c>
       <c r="G118" s="6">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C119" t="str">
         <f>IF(ISNUMBER(MATCH(B119,Tickers!A:A,0)),"Acción",
@@ -10587,25 +11281,25 @@
         <v>Cedear</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>19225</v>
+        <v>17600</v>
       </c>
       <c r="F119">
         <f>VLOOKUP(G119,CCL!A:B,2,FALSE)</f>
-        <v>1259.83</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G119" s="6">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C120" t="str">
         <f>IF(ISNUMBER(MATCH(B120,Tickers!A:A,0)),"Acción",
@@ -10616,25 +11310,25 @@
         <v>Cedear</v>
       </c>
       <c r="D120">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E120">
-        <v>23950</v>
+        <v>17725</v>
       </c>
       <c r="F120">
         <f>VLOOKUP(G120,CCL!A:B,2,FALSE)</f>
-        <v>1259.83</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G120" s="6">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C121" t="str">
         <f>IF(ISNUMBER(MATCH(B121,Tickers!A:A,0)),"Acción",
@@ -10645,25 +11339,25 @@
         <v>Cedear</v>
       </c>
       <c r="D121">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>6290</v>
+        <v>21913</v>
       </c>
       <c r="F121">
         <f>VLOOKUP(G121,CCL!A:B,2,FALSE)</f>
-        <v>1259.83</v>
+        <v>1386.59</v>
       </c>
       <c r="G121" s="6">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C122" t="str">
         <f>IF(ISNUMBER(MATCH(B122,Tickers!A:A,0)),"Acción",
@@ -10674,25 +11368,25 @@
         <v>Cedear</v>
       </c>
       <c r="D122">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>14050</v>
+        <v>17750</v>
       </c>
       <c r="F122">
         <f>VLOOKUP(G122,CCL!A:B,2,FALSE)</f>
-        <v>1259.83</v>
+        <v>1186.04</v>
       </c>
       <c r="G122" s="6">
-        <v>45547</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>38</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C123" t="str">
         <f>IF(ISNUMBER(MATCH(B123,Tickers!A:A,0)),"Acción",
@@ -10703,25 +11397,25 @@
         <v>Cedear</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>18600</v>
+        <v>22900</v>
       </c>
       <c r="F123">
         <f>VLOOKUP(G123,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1106.27</v>
       </c>
       <c r="G123" s="6">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B124" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C124" t="str">
         <f>IF(ISNUMBER(MATCH(B124,Tickers!A:A,0)),"Acción",
@@ -10732,25 +11426,25 @@
         <v>Cedear</v>
       </c>
       <c r="D124">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>1560</v>
+        <v>18550</v>
       </c>
       <c r="F124">
         <f>VLOOKUP(G124,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1157.72</v>
       </c>
       <c r="G124" s="6">
-        <v>45546</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C125" t="str">
         <f>IF(ISNUMBER(MATCH(B125,Tickers!A:A,0)),"Acción",
@@ -10761,17 +11455,17 @@
         <v>Cedear</v>
       </c>
       <c r="D125">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>17375</v>
+        <v>21375</v>
       </c>
       <c r="F125">
         <f>VLOOKUP(G125,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1155.92</v>
       </c>
       <c r="G125" s="6">
-        <v>45546</v>
+        <v>45609</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -10790,17 +11484,17 @@
         <v>Cedear</v>
       </c>
       <c r="D126">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="E126">
-        <v>5890</v>
+        <v>6460</v>
       </c>
       <c r="F126">
         <f>VLOOKUP(G126,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1203.17</v>
       </c>
       <c r="G126" s="6">
-        <v>45546</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -10808,7 +11502,7 @@
         <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C127" t="str">
         <f>IF(ISNUMBER(MATCH(B127,Tickers!A:A,0)),"Acción",
@@ -10819,17 +11513,17 @@
         <v>Cedear</v>
       </c>
       <c r="D127">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="E127">
-        <v>13825</v>
+        <v>6640</v>
       </c>
       <c r="F127">
         <f>VLOOKUP(G127,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1166.99</v>
       </c>
       <c r="G127" s="6">
-        <v>45546</v>
+        <v>45649</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -10837,7 +11531,7 @@
         <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C128" t="str">
         <f>IF(ISNUMBER(MATCH(B128,Tickers!A:A,0)),"Acción",
@@ -10845,20 +11539,20 @@
   IF(ISNUMBER(MATCH(B128,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B128,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D128">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E128">
-        <v>8060</v>
+        <v>7110</v>
       </c>
       <c r="F128">
         <f>VLOOKUP(G128,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1158.29</v>
       </c>
       <c r="G128" s="6">
-        <v>45546</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -10866,7 +11560,7 @@
         <v>38</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C129" t="str">
         <f>IF(ISNUMBER(MATCH(B129,Tickers!A:A,0)),"Acción",
@@ -10874,28 +11568,28 @@
   IF(ISNUMBER(MATCH(B129,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B129,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D129">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E129">
-        <v>5400</v>
+        <v>6350</v>
       </c>
       <c r="F129">
         <f>VLOOKUP(G129,CCL!A:B,2,FALSE)</f>
-        <v>1245.78</v>
+        <v>1225.94</v>
       </c>
       <c r="G129" s="6">
-        <v>45546</v>
+        <v>45569</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C130" t="str">
         <f>IF(ISNUMBER(MATCH(B130,Tickers!A:A,0)),"Acción",
@@ -10906,17 +11600,17 @@
         <v>Cedear</v>
       </c>
       <c r="D130">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="E130">
-        <v>1585</v>
+        <v>6010</v>
       </c>
       <c r="F130">
         <f>VLOOKUP(G130,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="G130" s="6">
-        <v>45540</v>
+        <v>45553</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -10924,7 +11618,7 @@
         <v>38</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C131" t="str">
         <f>IF(ISNUMBER(MATCH(B131,Tickers!A:A,0)),"Acción",
@@ -10935,17 +11629,17 @@
         <v>Cedear</v>
       </c>
       <c r="D131">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E131">
-        <v>14375</v>
+        <v>6290</v>
       </c>
       <c r="F131">
         <f>VLOOKUP(G131,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1259.83</v>
       </c>
       <c r="G131" s="6">
-        <v>45540</v>
+        <v>45547</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
@@ -10953,7 +11647,7 @@
         <v>38</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C132" t="str">
         <f>IF(ISNUMBER(MATCH(B132,Tickers!A:A,0)),"Acción",
@@ -10961,28 +11655,28 @@
   IF(ISNUMBER(MATCH(B132,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B132,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="E132">
-        <v>2920</v>
+        <v>5890</v>
       </c>
       <c r="F132">
         <f>VLOOKUP(G132,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1245.78</v>
       </c>
       <c r="G132" s="6">
-        <v>45540</v>
+        <v>45546</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C133" t="str">
         <f>IF(ISNUMBER(MATCH(B133,Tickers!A:A,0)),"Acción",
@@ -10990,20 +11684,20 @@
   IF(ISNUMBER(MATCH(B133,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B133,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D133">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E133">
-        <v>8210</v>
+        <v>6760</v>
       </c>
       <c r="F133">
         <f>VLOOKUP(G133,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1291.78</v>
       </c>
       <c r="G133" s="6">
-        <v>45540</v>
+        <v>45532</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
@@ -11011,7 +11705,7 @@
         <v>38</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C134" t="str">
         <f>IF(ISNUMBER(MATCH(B134,Tickers!A:A,0)),"Acción",
@@ -11019,20 +11713,20 @@
   IF(ISNUMBER(MATCH(B134,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B134,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>5410</v>
+        <v>66399.5</v>
       </c>
       <c r="F134">
         <f>VLOOKUP(G134,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1297.19</v>
       </c>
       <c r="G134" s="6">
-        <v>45540</v>
+        <v>45449</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -11040,7 +11734,7 @@
         <v>38</v>
       </c>
       <c r="B135" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C135" t="str">
         <f>IF(ISNUMBER(MATCH(B135,Tickers!A:A,0)),"Acción",
@@ -11048,28 +11742,28 @@
   IF(ISNUMBER(MATCH(B135,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B135,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D135">
-        <v>145</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>340</v>
+        <v>64928</v>
       </c>
       <c r="F135">
         <f>VLOOKUP(G135,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1304.57</v>
       </c>
       <c r="G135" s="6">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B136" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C136" t="str">
         <f>IF(ISNUMBER(MATCH(B136,Tickers!A:A,0)),"Acción",
@@ -11077,28 +11771,28 @@
   IF(ISNUMBER(MATCH(B136,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B136,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="E136">
-        <v>17600</v>
+        <v>3680</v>
       </c>
       <c r="F136">
         <f>VLOOKUP(G136,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1189.68</v>
       </c>
       <c r="G136" s="6">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>38</v>
       </c>
       <c r="B137" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C137" t="str">
         <f>IF(ISNUMBER(MATCH(B137,Tickers!A:A,0)),"Acción",
@@ -11106,28 +11800,28 @@
   IF(ISNUMBER(MATCH(B137,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B137,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E137">
-        <v>17725</v>
+        <v>4225</v>
       </c>
       <c r="F137">
         <f>VLOOKUP(G137,CCL!A:B,2,FALSE)</f>
-        <v>1271.5999999999999</v>
+        <v>1180.7</v>
       </c>
       <c r="G137" s="6">
-        <v>45540</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C138" t="str">
         <f>IF(ISNUMBER(MATCH(B138,Tickers!A:A,0)),"Acción",
@@ -11135,28 +11829,28 @@
   IF(ISNUMBER(MATCH(B138,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B138,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D138">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E138">
-        <v>6760</v>
+        <v>3505</v>
       </c>
       <c r="F138">
         <f>VLOOKUP(G138,CCL!A:B,2,FALSE)</f>
-        <v>1291.78</v>
+        <v>1136.6400000000001</v>
       </c>
       <c r="G138" s="6">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45611</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>39</v>
       </c>
       <c r="B139" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C139" t="str">
         <f>IF(ISNUMBER(MATCH(B139,Tickers!A:A,0)),"Acción",
@@ -11164,28 +11858,28 @@
   IF(ISNUMBER(MATCH(B139,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B139,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D139">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E139">
-        <v>24375</v>
+        <v>2855</v>
       </c>
       <c r="F139">
         <f>VLOOKUP(G139,CCL!A:B,2,FALSE)</f>
-        <v>1291.78</v>
+        <v>1227.58</v>
       </c>
       <c r="G139" s="6">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B140" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C140" t="str">
         <f>IF(ISNUMBER(MATCH(B140,Tickers!A:A,0)),"Acción",
@@ -11193,28 +11887,28 @@
   IF(ISNUMBER(MATCH(B140,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B140,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D140">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>3640</v>
+        <v>2940</v>
       </c>
       <c r="F140">
         <f>VLOOKUP(G140,CCL!A:B,2,FALSE)</f>
-        <v>1291.78</v>
+        <v>1259.83</v>
       </c>
       <c r="G140" s="6">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C141" t="str">
         <f>IF(ISNUMBER(MATCH(B141,Tickers!A:A,0)),"Acción",
@@ -11222,25 +11916,25 @@
   IF(ISNUMBER(MATCH(B141,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B141,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D141">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="E141">
-        <v>1545</v>
+        <v>2920</v>
       </c>
       <c r="F141">
         <f>VLOOKUP(G141,CCL!A:B,2,FALSE)</f>
-        <v>1291.78</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="G141" s="6">
-        <v>45532</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45540</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -11254,25 +11948,25 @@
         <v>Cedear</v>
       </c>
       <c r="D142">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>12650</v>
+        <v>37675</v>
       </c>
       <c r="F142">
         <f>VLOOKUP(G142,CCL!A:B,2,FALSE)</f>
-        <v>1311.1</v>
+        <v>1213.1600000000001</v>
       </c>
       <c r="G142" s="6">
-        <v>45512</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C143" t="str">
         <f>IF(ISNUMBER(MATCH(B143,Tickers!A:A,0)),"Acción",
@@ -11283,25 +11977,25 @@
         <v>Cedear</v>
       </c>
       <c r="D143">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>34875</v>
+        <v>46000</v>
       </c>
       <c r="F143">
         <f>VLOOKUP(G143,CCL!A:B,2,FALSE)</f>
-        <v>1311.1</v>
+        <v>1185.19</v>
       </c>
       <c r="G143" s="6">
-        <v>45512</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C144" t="str">
         <f>IF(ISNUMBER(MATCH(B144,Tickers!A:A,0)),"Acción",
@@ -11315,22 +12009,22 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1946.5</v>
+        <v>41925</v>
       </c>
       <c r="F144">
         <f>VLOOKUP(G144,CCL!A:B,2,FALSE)</f>
-        <v>1386.59</v>
+        <v>1199.7</v>
       </c>
       <c r="G144" s="6">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C145" t="str">
         <f>IF(ISNUMBER(MATCH(B145,Tickers!A:A,0)),"Acción",
@@ -11341,25 +12035,25 @@
         <v>Cedear</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E145">
-        <v>21913</v>
+        <v>31725</v>
       </c>
       <c r="F145">
         <f>VLOOKUP(G145,CCL!A:B,2,FALSE)</f>
-        <v>1386.59</v>
+        <v>1180.7</v>
       </c>
       <c r="G145" s="6">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>38</v>
       </c>
       <c r="B146" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C146" t="str">
         <f>IF(ISNUMBER(MATCH(B146,Tickers!A:A,0)),"Acción",
@@ -11370,25 +12064,25 @@
         <v>Cedear</v>
       </c>
       <c r="D146">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="E146">
-        <v>1964</v>
+        <v>24275</v>
       </c>
       <c r="F146">
         <f>VLOOKUP(G146,CCL!A:B,2,FALSE)</f>
-        <v>1386.59</v>
+        <v>1155.92</v>
       </c>
       <c r="G146" s="6">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>39</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="str">
         <f>IF(ISNUMBER(MATCH(B147,Tickers!A:A,0)),"Acción",
@@ -11396,28 +12090,28 @@
   IF(ISNUMBER(MATCH(B147,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B147,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D147">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E147">
-        <v>3956.05</v>
+        <v>16875</v>
       </c>
       <c r="F147">
         <f>VLOOKUP(G147,CCL!A:B,2,FALSE)</f>
-        <v>1386.59</v>
+        <v>1183.9100000000001</v>
       </c>
       <c r="G147" s="6">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C148" t="str">
         <f>IF(ISNUMBER(MATCH(B148,Tickers!A:A,0)),"Acción",
@@ -11425,28 +12119,28 @@
   IF(ISNUMBER(MATCH(B148,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B148,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D148">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E148">
-        <v>7150</v>
+        <v>12650</v>
       </c>
       <c r="F148">
         <f>VLOOKUP(G148,CCL!A:B,2,FALSE)</f>
-        <v>1386.59</v>
+        <v>1311.1</v>
       </c>
       <c r="G148" s="6">
-        <v>45481</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>38</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C149" t="str">
         <f>IF(ISNUMBER(MATCH(B149,Tickers!A:A,0)),"Acción",
@@ -11454,28 +12148,28 @@
   IF(ISNUMBER(MATCH(B149,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B149,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E149">
-        <v>3995</v>
+        <v>58000</v>
       </c>
       <c r="F149">
         <f>VLOOKUP(G149,CCL!A:B,2,FALSE)</f>
-        <v>1428.72</v>
+        <v>1197.21</v>
       </c>
       <c r="G149" s="6">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C150" t="str">
         <f>IF(ISNUMBER(MATCH(B150,Tickers!A:A,0)),"Acción",
@@ -11486,25 +12180,25 @@
         <v>Cedear</v>
       </c>
       <c r="D150">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E150">
-        <v>4333</v>
+        <v>34875</v>
       </c>
       <c r="F150">
         <f>VLOOKUP(G150,CCL!A:B,2,FALSE)</f>
-        <v>1345.7</v>
+        <v>1311.1</v>
       </c>
       <c r="G150" s="6">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45512</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B151" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C151" t="str">
         <f>IF(ISNUMBER(MATCH(B151,Tickers!A:A,0)),"Acción",
@@ -11515,25 +12209,25 @@
         <v>Cedear</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E151">
-        <v>20387.5</v>
+        <v>34725</v>
       </c>
       <c r="F151">
         <f>VLOOKUP(G151,CCL!A:B,2,FALSE)</f>
-        <v>1345.7</v>
+        <v>1264.17</v>
       </c>
       <c r="G151" s="6">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C152" t="str">
         <f>IF(ISNUMBER(MATCH(B152,Tickers!A:A,0)),"Acción",
@@ -11541,28 +12235,28 @@
   IF(ISNUMBER(MATCH(B152,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B152,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D152">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E152">
-        <v>4092</v>
+        <v>34520</v>
       </c>
       <c r="F152">
         <f>VLOOKUP(G152,CCL!A:B,2,FALSE)</f>
-        <v>1345.7</v>
+        <v>1304.57</v>
       </c>
       <c r="G152" s="6">
-        <v>45470</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C153" t="str">
         <f>IF(ISNUMBER(MATCH(B153,Tickers!A:A,0)),"Acción",
@@ -11570,28 +12264,28 @@
   IF(ISNUMBER(MATCH(B153,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B153,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D153">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E153">
-        <v>13655</v>
+        <v>6090</v>
       </c>
       <c r="F153">
         <f>VLOOKUP(G153,CCL!A:B,2,FALSE)</f>
-        <v>1264.17</v>
+        <v>1189.68</v>
       </c>
       <c r="G153" s="6">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>38</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C154" t="str">
         <f>IF(ISNUMBER(MATCH(B154,Tickers!A:A,0)),"Acción",
@@ -11599,28 +12293,28 @@
   IF(ISNUMBER(MATCH(B154,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B154,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D154">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E154">
-        <v>34725</v>
+        <v>6900</v>
       </c>
       <c r="F154">
         <f>VLOOKUP(G154,CCL!A:B,2,FALSE)</f>
-        <v>1264.17</v>
+        <v>1180.7</v>
       </c>
       <c r="G154" s="6">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B155" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C155" t="str">
         <f>IF(ISNUMBER(MATCH(B155,Tickers!A:A,0)),"Acción",
@@ -11628,28 +12322,28 @@
   IF(ISNUMBER(MATCH(B155,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B155,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Cedear</v>
+        <v>Acción</v>
       </c>
       <c r="D155">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E155">
-        <v>26391</v>
+        <v>6570</v>
       </c>
       <c r="F155">
         <f>VLOOKUP(G155,CCL!A:B,2,FALSE)</f>
-        <v>1264.17</v>
+        <v>1176.1500000000001</v>
       </c>
       <c r="G155" s="6">
-        <v>45461</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C156" t="str">
         <f>IF(ISNUMBER(MATCH(B156,Tickers!A:A,0)),"Acción",
@@ -11660,25 +12354,25 @@
         <v>Acción</v>
       </c>
       <c r="D156">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E156">
-        <v>4305.1499999999996</v>
+        <v>7070</v>
       </c>
       <c r="F156">
         <f>VLOOKUP(G156,CCL!A:B,2,FALSE)</f>
-        <v>1301.8900000000001</v>
+        <v>1184.1600000000001</v>
       </c>
       <c r="G156" s="6">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>38</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C157" t="str">
         <f>IF(ISNUMBER(MATCH(B157,Tickers!A:A,0)),"Acción",
@@ -11689,25 +12383,25 @@
         <v>Acción</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="E157">
-        <v>7650</v>
+        <v>5370</v>
       </c>
       <c r="F157">
         <f>VLOOKUP(G157,CCL!A:B,2,FALSE)</f>
-        <v>1301.8900000000001</v>
+        <v>1154.77</v>
       </c>
       <c r="G157" s="6">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C158" t="str">
         <f>IF(ISNUMBER(MATCH(B158,Tickers!A:A,0)),"Acción",
@@ -11715,28 +12409,28 @@
   IF(ISNUMBER(MATCH(B158,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B158,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D158">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E158">
-        <v>4337.95</v>
+        <v>6680</v>
       </c>
       <c r="F158">
         <f>VLOOKUP(G158,CCL!A:B,2,FALSE)</f>
-        <v>1301.8900000000001</v>
+        <v>1187.6199999999999</v>
       </c>
       <c r="G158" s="6">
-        <v>45455</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>38</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C159" t="str">
         <f>IF(ISNUMBER(MATCH(B159,Tickers!A:A,0)),"Acción",
@@ -11744,28 +12438,28 @@
   IF(ISNUMBER(MATCH(B159,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B159,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E159">
-        <v>4160</v>
+        <v>6050</v>
       </c>
       <c r="F159">
         <f>VLOOKUP(G159,CCL!A:B,2,FALSE)</f>
-        <v>1312.5</v>
+        <v>1110.1099999999999</v>
       </c>
       <c r="G159" s="6">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45621</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C160" t="str">
         <f>IF(ISNUMBER(MATCH(B160,Tickers!A:A,0)),"Acción",
@@ -11773,28 +12467,28 @@
   IF(ISNUMBER(MATCH(B160,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B160,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>7538.95</v>
+        <v>29725</v>
       </c>
       <c r="F160">
         <f>VLOOKUP(G160,CCL!A:B,2,FALSE)</f>
-        <v>1312.5</v>
+        <v>1174.5899999999999</v>
       </c>
       <c r="G160" s="6">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>38</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C161" t="str">
         <f>IF(ISNUMBER(MATCH(B161,Tickers!A:A,0)),"Acción",
@@ -11802,28 +12496,28 @@
   IF(ISNUMBER(MATCH(B161,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B161,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D161">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E161">
-        <v>4180</v>
+        <v>33725</v>
       </c>
       <c r="F161">
         <f>VLOOKUP(G161,CCL!A:B,2,FALSE)</f>
-        <v>1312.5</v>
+        <v>1166.99</v>
       </c>
       <c r="G161" s="6">
-        <v>45450</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B162" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C162" t="str">
         <f>IF(ISNUMBER(MATCH(B162,Tickers!A:A,0)),"Acción",
@@ -11834,25 +12528,25 @@
         <v>Cedear</v>
       </c>
       <c r="D162">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E162">
-        <v>24450</v>
+        <v>17625</v>
       </c>
       <c r="F162">
         <f>VLOOKUP(G162,CCL!A:B,2,FALSE)</f>
-        <v>1297.19</v>
+        <v>1194.6199999999999</v>
       </c>
       <c r="G162" s="6">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45583</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>38</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C163" t="str">
         <f>IF(ISNUMBER(MATCH(B163,Tickers!A:A,0)),"Acción",
@@ -11863,25 +12557,25 @@
         <v>Cedear</v>
       </c>
       <c r="D163">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E163">
-        <v>12899.5</v>
+        <v>19225</v>
       </c>
       <c r="F163">
         <f>VLOOKUP(G163,CCL!A:B,2,FALSE)</f>
-        <v>1297.19</v>
+        <v>1259.83</v>
       </c>
       <c r="G163" s="6">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>38</v>
       </c>
       <c r="B164" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C164" t="str">
         <f>IF(ISNUMBER(MATCH(B164,Tickers!A:A,0)),"Acción",
@@ -11892,22 +12586,22 @@
         <v>Cedear</v>
       </c>
       <c r="D164">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E164">
-        <v>66399.5</v>
+        <v>18600</v>
       </c>
       <c r="F164">
         <f>VLOOKUP(G164,CCL!A:B,2,FALSE)</f>
-        <v>1297.19</v>
+        <v>1245.78</v>
       </c>
       <c r="G164" s="6">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45546</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B165" t="s">
         <v>31</v>
@@ -11921,25 +12615,25 @@
         <v>Cedear</v>
       </c>
       <c r="D165">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>23650</v>
+        <v>26450</v>
       </c>
       <c r="F165">
         <f>VLOOKUP(G165,CCL!A:B,2,FALSE)</f>
-        <v>1297.19</v>
+        <v>1183.9100000000001</v>
       </c>
       <c r="G165" s="6">
-        <v>45449</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45588</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>38</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C166" t="str">
         <f>IF(ISNUMBER(MATCH(B166,Tickers!A:A,0)),"Acción",
@@ -11947,28 +12641,28 @@
   IF(ISNUMBER(MATCH(B166,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B166,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D166">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E166">
-        <v>4450</v>
+        <v>23950</v>
       </c>
       <c r="F166">
         <f>VLOOKUP(G166,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1259.83</v>
       </c>
       <c r="G166" s="6">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45547</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C167" t="str">
         <f>IF(ISNUMBER(MATCH(B167,Tickers!A:A,0)),"Acción",
@@ -11976,28 +12670,28 @@
   IF(ISNUMBER(MATCH(B167,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B167,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>7837.9</v>
+        <v>24375</v>
       </c>
       <c r="F167">
         <f>VLOOKUP(G167,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1291.78</v>
       </c>
       <c r="G167" s="6">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45532</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C168" t="str">
         <f>IF(ISNUMBER(MATCH(B168,Tickers!A:A,0)),"Acción",
@@ -12005,28 +12699,28 @@
   IF(ISNUMBER(MATCH(B168,Tickers!C:C,0)),"Bono",
    IF(ISNUMBER(MATCH(B168,Tickers!D:D,0)),"Fondo",
     "No encontrado"))))</f>
-        <v>Acción</v>
+        <v>Cedear</v>
       </c>
       <c r="D168">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E168">
-        <v>4245</v>
+        <v>26391</v>
       </c>
       <c r="F168">
         <f>VLOOKUP(G168,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1264.17</v>
       </c>
       <c r="G168" s="6">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45461</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>38</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C169" t="str">
         <f>IF(ISNUMBER(MATCH(B169,Tickers!A:A,0)),"Acción",
@@ -12037,25 +12731,25 @@
         <v>Cedear</v>
       </c>
       <c r="D169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E169">
-        <v>20360.5</v>
+        <v>23650</v>
       </c>
       <c r="F169">
         <f>VLOOKUP(G169,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1297.19</v>
       </c>
       <c r="G169" s="6">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45449</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>38</v>
       </c>
       <c r="B170" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C170" t="str">
         <f>IF(ISNUMBER(MATCH(B170,Tickers!A:A,0)),"Acción",
@@ -12066,25 +12760,25 @@
         <v>Cedear</v>
       </c>
       <c r="D170">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E170">
-        <v>34520</v>
+        <v>6490</v>
       </c>
       <c r="F170">
         <f>VLOOKUP(G170,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1185.97</v>
       </c>
       <c r="G170" s="6">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>38</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C171" t="str">
         <f>IF(ISNUMBER(MATCH(B171,Tickers!A:A,0)),"Acción",
@@ -12095,25 +12789,25 @@
         <v>Cedear</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E171">
-        <v>64928</v>
+        <v>6460</v>
       </c>
       <c r="F171">
         <f>VLOOKUP(G171,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1180.7</v>
       </c>
       <c r="G171" s="6">
-        <v>45448</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>38</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C172" t="str">
         <f>IF(ISNUMBER(MATCH(B172,Tickers!A:A,0)),"Acción",
@@ -12124,21 +12818,30 @@
         <v>Cedear</v>
       </c>
       <c r="D172">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E172">
-        <v>12768</v>
+        <v>5550</v>
       </c>
       <c r="F172">
         <f>VLOOKUP(G172,CCL!A:B,2,FALSE)</f>
-        <v>1304.57</v>
+        <v>1106.07</v>
       </c>
       <c r="G172" s="6">
-        <v>45448</v>
+        <v>45618</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{E937F5EB-818B-419B-8D9B-586B9B504655}"/>
+  <autoFilter ref="A1:G172" xr:uid="{E937F5EB-818B-419B-8D9B-586B9B504655}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="NVDA"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G172">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
